--- a/project/dmy/moon.xlsx
+++ b/project/dmy/moon.xlsx
@@ -1,21 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repositories\mmhelper\project\dmy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\大月亮\Downloads\WPy64-3720\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C0420B3D-7DEE-4834-B7B1-393CC589E7F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA7C1DC-F2CE-4380-AF68-B3D28CD17F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="15634" windowHeight="9892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moon" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -32,9 +40,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
   </si>
   <si>
     <t xml:space="preserve">Infiltration </t>
@@ -73,12 +78,15 @@
     <t>PR</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
+  <si>
+    <t>M</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -237,6 +245,13 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -536,7 +551,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -663,13 +678,14 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -695,6 +711,7 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="42" xr:uid="{68E2BF11-6EBF-4805-BCB8-BDDD65BA2A98}"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -713,7 +730,58 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="5">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1022,63 +1090,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O395"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A396" sqref="A396:XFD400"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1089,7 +1158,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1125,7 +1194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>0</v>
       </c>
@@ -1136,7 +1205,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1172,7 +1241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>0</v>
       </c>
@@ -1183,7 +1252,7 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -1219,7 +1288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>1</v>
       </c>
@@ -1230,7 +1299,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -1266,7 +1335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>0</v>
       </c>
@@ -1277,7 +1346,7 @@
         <v>5</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -1313,7 +1382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>0</v>
       </c>
@@ -1324,7 +1393,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1360,7 +1429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>0</v>
       </c>
@@ -1371,7 +1440,7 @@
         <v>2</v>
       </c>
       <c r="D8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1407,7 +1476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0</v>
       </c>
@@ -1418,7 +1487,7 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1454,7 +1523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1465,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1501,7 +1570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>1</v>
       </c>
@@ -1512,7 +1581,7 @@
         <v>5</v>
       </c>
       <c r="D11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1548,7 +1617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1559,7 +1628,7 @@
         <v>5</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1595,7 +1664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1606,7 +1675,7 @@
         <v>1</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1642,7 +1711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1653,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -1689,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1700,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="D15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -1736,7 +1805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1747,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1783,7 +1852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>1</v>
       </c>
@@ -1794,7 +1863,7 @@
         <v>5</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -1830,7 +1899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1841,7 +1910,7 @@
         <v>1</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1877,7 +1946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>1</v>
       </c>
@@ -1888,7 +1957,7 @@
         <v>1</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19">
         <v>3</v>
@@ -1924,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1935,7 +2004,7 @@
         <v>5</v>
       </c>
       <c r="D20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1971,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>1</v>
       </c>
@@ -1982,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -2018,7 +2087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>0</v>
       </c>
@@ -2029,7 +2098,7 @@
         <v>4</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22">
         <v>3</v>
@@ -2065,7 +2134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>0</v>
       </c>
@@ -2076,7 +2145,7 @@
         <v>5</v>
       </c>
       <c r="D23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E23">
         <v>3</v>
@@ -2112,7 +2181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>0</v>
       </c>
@@ -2123,7 +2192,7 @@
         <v>5</v>
       </c>
       <c r="D24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -2159,7 +2228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2170,7 +2239,7 @@
         <v>1</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -2206,7 +2275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0</v>
       </c>
@@ -2217,7 +2286,7 @@
         <v>1</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -2253,7 +2322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2264,7 +2333,7 @@
         <v>2</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -2300,7 +2369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>1</v>
       </c>
@@ -2311,7 +2380,7 @@
         <v>2</v>
       </c>
       <c r="D28">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -2347,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2358,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -2394,7 +2463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2405,7 +2474,7 @@
         <v>4</v>
       </c>
       <c r="D30">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2441,7 +2510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2452,7 +2521,7 @@
         <v>5</v>
       </c>
       <c r="D31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2488,7 +2557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2499,7 +2568,7 @@
         <v>2</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E32">
         <v>3</v>
@@ -2535,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2546,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="D33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33">
         <v>3</v>
@@ -2582,7 +2651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2593,7 +2662,7 @@
         <v>1</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -2629,7 +2698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2640,7 +2709,7 @@
         <v>1</v>
       </c>
       <c r="D35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35">
         <v>3</v>
@@ -2676,7 +2745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2687,7 +2756,7 @@
         <v>5</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2723,7 +2792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2734,7 +2803,7 @@
         <v>1</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E37">
         <v>3</v>
@@ -2770,7 +2839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2781,7 +2850,7 @@
         <v>1</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2817,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2828,7 +2897,7 @@
         <v>1</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E39">
         <v>3</v>
@@ -2864,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>1</v>
       </c>
@@ -2875,7 +2944,7 @@
         <v>5</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E40">
         <v>3</v>
@@ -2911,7 +2980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2922,7 +2991,7 @@
         <v>5</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41">
         <v>3</v>
@@ -2958,7 +3027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0</v>
       </c>
@@ -2969,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="D42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42">
         <v>3</v>
@@ -3005,7 +3074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3016,7 +3085,7 @@
         <v>2</v>
       </c>
       <c r="D43">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E43">
         <v>3</v>
@@ -3052,7 +3121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3063,7 +3132,7 @@
         <v>1</v>
       </c>
       <c r="D44">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44">
         <v>3</v>
@@ -3099,7 +3168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3110,7 +3179,7 @@
         <v>1</v>
       </c>
       <c r="D45">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45">
         <v>3</v>
@@ -3146,7 +3215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>1</v>
       </c>
@@ -3157,7 +3226,7 @@
         <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46">
         <v>3</v>
@@ -3193,7 +3262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3204,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="D47">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47">
         <v>3</v>
@@ -3240,7 +3309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3251,7 +3320,7 @@
         <v>1</v>
       </c>
       <c r="D48">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48">
         <v>3</v>
@@ -3287,7 +3356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>1</v>
       </c>
@@ -3298,7 +3367,7 @@
         <v>3</v>
       </c>
       <c r="D49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49">
         <v>3</v>
@@ -3334,7 +3403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3345,7 +3414,7 @@
         <v>1</v>
       </c>
       <c r="D50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -3381,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3392,7 +3461,7 @@
         <v>1</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -3428,7 +3497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3439,7 +3508,7 @@
         <v>3</v>
       </c>
       <c r="D52">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -3475,7 +3544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>1</v>
       </c>
@@ -3486,7 +3555,7 @@
         <v>5</v>
       </c>
       <c r="D53">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -3522,7 +3591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3533,7 +3602,7 @@
         <v>1</v>
       </c>
       <c r="D54">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E54">
         <v>3</v>
@@ -3569,7 +3638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3580,7 +3649,7 @@
         <v>1</v>
       </c>
       <c r="D55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -3616,7 +3685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>1</v>
       </c>
@@ -3627,7 +3696,7 @@
         <v>1</v>
       </c>
       <c r="D56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -3663,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -3674,7 +3743,7 @@
         <v>5</v>
       </c>
       <c r="D57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -3710,7 +3779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -3721,7 +3790,7 @@
         <v>2</v>
       </c>
       <c r="D58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -3757,7 +3826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0</v>
       </c>
@@ -3768,7 +3837,7 @@
         <v>1</v>
       </c>
       <c r="D59">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -3804,7 +3873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>0</v>
       </c>
@@ -3815,7 +3884,7 @@
         <v>1</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60">
         <v>3</v>
@@ -3851,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0</v>
       </c>
@@ -3862,7 +3931,7 @@
         <v>1</v>
       </c>
       <c r="D61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -3898,7 +3967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0</v>
       </c>
@@ -3909,7 +3978,7 @@
         <v>3</v>
       </c>
       <c r="D62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E62">
         <v>3</v>
@@ -3945,7 +4014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>0</v>
       </c>
@@ -3956,7 +4025,7 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -3992,7 +4061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4003,7 +4072,7 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64">
         <v>3</v>
@@ -4039,7 +4108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4050,7 +4119,7 @@
         <v>1</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65">
         <v>3</v>
@@ -4086,7 +4155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4097,7 +4166,7 @@
         <v>5</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -4133,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4144,7 +4213,7 @@
         <v>1</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E67">
         <v>3</v>
@@ -4180,7 +4249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>0</v>
       </c>
@@ -4191,7 +4260,7 @@
         <v>2</v>
       </c>
       <c r="D68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68">
         <v>3</v>
@@ -4227,7 +4296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>0</v>
       </c>
@@ -4238,7 +4307,7 @@
         <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69">
         <v>3</v>
@@ -4274,7 +4343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4285,7 +4354,7 @@
         <v>5</v>
       </c>
       <c r="D70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70">
         <v>3</v>
@@ -4321,7 +4390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4332,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="D71">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -4368,7 +4437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>0</v>
       </c>
@@ -4379,7 +4448,7 @@
         <v>1</v>
       </c>
       <c r="D72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E72">
         <v>3</v>
@@ -4415,7 +4484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>0</v>
       </c>
@@ -4426,7 +4495,7 @@
         <v>1</v>
       </c>
       <c r="D73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73">
         <v>3</v>
@@ -4462,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>0</v>
       </c>
@@ -4473,7 +4542,7 @@
         <v>1</v>
       </c>
       <c r="D74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -4509,7 +4578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0</v>
       </c>
@@ -4520,7 +4589,7 @@
         <v>1</v>
       </c>
       <c r="D75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75">
         <v>3</v>
@@ -4556,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0</v>
       </c>
@@ -4567,7 +4636,7 @@
         <v>2</v>
       </c>
       <c r="D76">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -4603,7 +4672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>0</v>
       </c>
@@ -4614,7 +4683,7 @@
         <v>1</v>
       </c>
       <c r="D77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -4650,7 +4719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>0</v>
       </c>
@@ -4661,7 +4730,7 @@
         <v>1</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -4697,7 +4766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>0</v>
       </c>
@@ -4708,7 +4777,7 @@
         <v>1</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -4744,7 +4813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>0</v>
       </c>
@@ -4755,7 +4824,7 @@
         <v>2</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -4791,7 +4860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>0</v>
       </c>
@@ -4838,7 +4907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>0</v>
       </c>
@@ -4849,7 +4918,7 @@
         <v>1</v>
       </c>
       <c r="D82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E82">
         <v>2</v>
@@ -4885,7 +4954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>0</v>
       </c>
@@ -4896,7 +4965,7 @@
         <v>1</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E83">
         <v>2</v>
@@ -4932,7 +5001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4943,7 +5012,7 @@
         <v>1</v>
       </c>
       <c r="D84">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E84">
         <v>2</v>
@@ -4979,7 +5048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>0</v>
       </c>
@@ -4990,7 +5059,7 @@
         <v>1</v>
       </c>
       <c r="D85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E85">
         <v>3</v>
@@ -5026,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -5037,7 +5106,7 @@
         <v>1</v>
       </c>
       <c r="D86">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E86">
         <v>2</v>
@@ -5073,7 +5142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>0</v>
       </c>
@@ -5084,7 +5153,7 @@
         <v>1</v>
       </c>
       <c r="D87">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E87">
         <v>2</v>
@@ -5120,7 +5189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>0</v>
       </c>
@@ -5131,7 +5200,7 @@
         <v>5</v>
       </c>
       <c r="D88">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E88">
         <v>3</v>
@@ -5167,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>1</v>
       </c>
@@ -5178,7 +5247,7 @@
         <v>4</v>
       </c>
       <c r="D89">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E89">
         <v>3</v>
@@ -5214,7 +5283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>0</v>
       </c>
@@ -5225,7 +5294,7 @@
         <v>4</v>
       </c>
       <c r="D90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -5261,7 +5330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -5272,7 +5341,7 @@
         <v>1</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91">
         <v>3</v>
@@ -5308,7 +5377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -5319,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="D92">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E92">
         <v>3</v>
@@ -5355,7 +5424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0</v>
       </c>
@@ -5366,7 +5435,7 @@
         <v>1</v>
       </c>
       <c r="D93">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E93">
         <v>2</v>
@@ -5402,7 +5471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>0</v>
       </c>
@@ -5413,7 +5482,7 @@
         <v>5</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E94">
         <v>2</v>
@@ -5449,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>0</v>
       </c>
@@ -5460,7 +5529,7 @@
         <v>4</v>
       </c>
       <c r="D95">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E95">
         <v>2</v>
@@ -5496,7 +5565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>0</v>
       </c>
@@ -5507,7 +5576,7 @@
         <v>1</v>
       </c>
       <c r="D96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E96">
         <v>3</v>
@@ -5543,7 +5612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>0</v>
       </c>
@@ -5554,7 +5623,7 @@
         <v>1</v>
       </c>
       <c r="D97">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E97">
         <v>2</v>
@@ -5590,7 +5659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>0</v>
       </c>
@@ -5601,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="D98">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E98">
         <v>3</v>
@@ -5637,7 +5706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>0</v>
       </c>
@@ -5648,7 +5717,7 @@
         <v>5</v>
       </c>
       <c r="D99">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E99">
         <v>3</v>
@@ -5684,7 +5753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0</v>
       </c>
@@ -5695,7 +5764,7 @@
         <v>5</v>
       </c>
       <c r="D100">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E100">
         <v>2</v>
@@ -5731,7 +5800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>0</v>
       </c>
@@ -5742,7 +5811,7 @@
         <v>1</v>
       </c>
       <c r="D101">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E101">
         <v>2</v>
@@ -5778,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0</v>
       </c>
@@ -5789,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="D102">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -5825,7 +5894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0</v>
       </c>
@@ -5836,7 +5905,7 @@
         <v>1</v>
       </c>
       <c r="D103">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E103">
         <v>2</v>
@@ -5872,7 +5941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -5883,7 +5952,7 @@
         <v>1</v>
       </c>
       <c r="D104">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E104">
         <v>3</v>
@@ -5919,7 +5988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>0</v>
       </c>
@@ -5930,7 +5999,7 @@
         <v>1</v>
       </c>
       <c r="D105">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E105">
         <v>2</v>
@@ -5966,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>0</v>
       </c>
@@ -5977,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="D106">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E106">
         <v>3</v>
@@ -6013,7 +6082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>0</v>
       </c>
@@ -6024,7 +6093,7 @@
         <v>1</v>
       </c>
       <c r="D107">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E107">
         <v>3</v>
@@ -6060,7 +6129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>0</v>
       </c>
@@ -6071,7 +6140,7 @@
         <v>1</v>
       </c>
       <c r="D108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E108">
         <v>3</v>
@@ -6107,7 +6176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>0</v>
       </c>
@@ -6118,7 +6187,7 @@
         <v>1</v>
       </c>
       <c r="D109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E109">
         <v>2</v>
@@ -6154,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>0</v>
       </c>
@@ -6165,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="D110">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E110">
         <v>2</v>
@@ -6201,7 +6270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>0</v>
       </c>
@@ -6212,7 +6281,7 @@
         <v>2</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E111">
         <v>2</v>
@@ -6248,7 +6317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>0</v>
       </c>
@@ -6259,7 +6328,7 @@
         <v>1</v>
       </c>
       <c r="D112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E112">
         <v>2</v>
@@ -6295,7 +6364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>0</v>
       </c>
@@ -6306,7 +6375,7 @@
         <v>5</v>
       </c>
       <c r="D113">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E113">
         <v>2</v>
@@ -6342,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -6353,7 +6422,7 @@
         <v>2</v>
       </c>
       <c r="D114">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E114">
         <v>3</v>
@@ -6389,7 +6458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>0</v>
       </c>
@@ -6400,7 +6469,7 @@
         <v>1</v>
       </c>
       <c r="D115">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -6436,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>0</v>
       </c>
@@ -6447,7 +6516,7 @@
         <v>1</v>
       </c>
       <c r="D116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E116">
         <v>3</v>
@@ -6483,7 +6552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>0</v>
       </c>
@@ -6494,7 +6563,7 @@
         <v>1</v>
       </c>
       <c r="D117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E117">
         <v>3</v>
@@ -6530,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>0</v>
       </c>
@@ -6541,7 +6610,7 @@
         <v>1</v>
       </c>
       <c r="D118">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E118">
         <v>2</v>
@@ -6577,7 +6646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>0</v>
       </c>
@@ -6588,7 +6657,7 @@
         <v>1</v>
       </c>
       <c r="D119">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E119">
         <v>2</v>
@@ -6624,7 +6693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>0</v>
       </c>
@@ -6635,7 +6704,7 @@
         <v>1</v>
       </c>
       <c r="D120">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E120">
         <v>2</v>
@@ -6671,7 +6740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>0</v>
       </c>
@@ -6682,7 +6751,7 @@
         <v>1</v>
       </c>
       <c r="D121">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E121">
         <v>2</v>
@@ -6718,7 +6787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>0</v>
       </c>
@@ -6729,7 +6798,7 @@
         <v>2</v>
       </c>
       <c r="D122">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E122">
         <v>3</v>
@@ -6765,7 +6834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0</v>
       </c>
@@ -6776,7 +6845,7 @@
         <v>1</v>
       </c>
       <c r="D123">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E123">
         <v>3</v>
@@ -6812,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>0</v>
       </c>
@@ -6823,7 +6892,7 @@
         <v>1</v>
       </c>
       <c r="D124">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E124">
         <v>2</v>
@@ -6859,7 +6928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>0</v>
       </c>
@@ -6870,7 +6939,7 @@
         <v>1</v>
       </c>
       <c r="D125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E125">
         <v>2</v>
@@ -6906,7 +6975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>0</v>
       </c>
@@ -6917,7 +6986,7 @@
         <v>1</v>
       </c>
       <c r="D126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E126">
         <v>2</v>
@@ -6953,7 +7022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -6964,7 +7033,7 @@
         <v>1</v>
       </c>
       <c r="D127">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E127">
         <v>3</v>
@@ -7000,7 +7069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -7011,7 +7080,7 @@
         <v>5</v>
       </c>
       <c r="D128">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E128">
         <v>2</v>
@@ -7047,7 +7116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0</v>
       </c>
@@ -7058,7 +7127,7 @@
         <v>5</v>
       </c>
       <c r="D129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -7094,7 +7163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0</v>
       </c>
@@ -7105,7 +7174,7 @@
         <v>1</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
         <v>2</v>
@@ -7141,7 +7210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0</v>
       </c>
@@ -7152,7 +7221,7 @@
         <v>5</v>
       </c>
       <c r="D131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E131">
         <v>3</v>
@@ -7188,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0</v>
       </c>
@@ -7199,7 +7268,7 @@
         <v>1</v>
       </c>
       <c r="D132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E132">
         <v>2</v>
@@ -7235,7 +7304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0</v>
       </c>
@@ -7246,7 +7315,7 @@
         <v>1</v>
       </c>
       <c r="D133">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E133">
         <v>3</v>
@@ -7282,7 +7351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0</v>
       </c>
@@ -7293,7 +7362,7 @@
         <v>5</v>
       </c>
       <c r="D134">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E134">
         <v>2</v>
@@ -7329,7 +7398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>0</v>
       </c>
@@ -7340,7 +7409,7 @@
         <v>1</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E135">
         <v>2</v>
@@ -7376,7 +7445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>0</v>
       </c>
@@ -7387,7 +7456,7 @@
         <v>1</v>
       </c>
       <c r="D136">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E136">
         <v>2</v>
@@ -7423,7 +7492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>0</v>
       </c>
@@ -7434,7 +7503,7 @@
         <v>1</v>
       </c>
       <c r="D137">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E137">
         <v>2</v>
@@ -7470,7 +7539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>0</v>
       </c>
@@ -7481,7 +7550,7 @@
         <v>1</v>
       </c>
       <c r="D138">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E138">
         <v>3</v>
@@ -7517,7 +7586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0</v>
       </c>
@@ -7528,7 +7597,7 @@
         <v>1</v>
       </c>
       <c r="D139">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E139">
         <v>2</v>
@@ -7564,7 +7633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0</v>
       </c>
@@ -7575,7 +7644,7 @@
         <v>2</v>
       </c>
       <c r="D140">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E140">
         <v>3</v>
@@ -7611,7 +7680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0</v>
       </c>
@@ -7622,7 +7691,7 @@
         <v>2</v>
       </c>
       <c r="D141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E141">
         <v>3</v>
@@ -7658,7 +7727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0</v>
       </c>
@@ -7669,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="D142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E142">
         <v>3</v>
@@ -7705,7 +7774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0</v>
       </c>
@@ -7716,7 +7785,7 @@
         <v>4</v>
       </c>
       <c r="D143">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E143">
         <v>3</v>
@@ -7752,7 +7821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0</v>
       </c>
@@ -7763,7 +7832,7 @@
         <v>1</v>
       </c>
       <c r="D144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E144">
         <v>3</v>
@@ -7799,7 +7868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0</v>
       </c>
@@ -7810,7 +7879,7 @@
         <v>1</v>
       </c>
       <c r="D145">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E145">
         <v>3</v>
@@ -7846,7 +7915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0</v>
       </c>
@@ -7857,7 +7926,7 @@
         <v>5</v>
       </c>
       <c r="D146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E146">
         <v>3</v>
@@ -7893,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0</v>
       </c>
@@ -7904,7 +7973,7 @@
         <v>5</v>
       </c>
       <c r="D147">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E147">
         <v>2</v>
@@ -7940,7 +8009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0</v>
       </c>
@@ -7951,7 +8020,7 @@
         <v>3</v>
       </c>
       <c r="D148">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E148">
         <v>2</v>
@@ -7987,7 +8056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -7998,7 +8067,7 @@
         <v>2</v>
       </c>
       <c r="D149">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -8034,7 +8103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0</v>
       </c>
@@ -8081,7 +8150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0</v>
       </c>
@@ -8092,7 +8161,7 @@
         <v>5</v>
       </c>
       <c r="D151">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E151">
         <v>1</v>
@@ -8128,7 +8197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0</v>
       </c>
@@ -8139,7 +8208,7 @@
         <v>1</v>
       </c>
       <c r="D152">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E152">
         <v>3</v>
@@ -8175,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0</v>
       </c>
@@ -8186,7 +8255,7 @@
         <v>5</v>
       </c>
       <c r="D153">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E153">
         <v>2</v>
@@ -8222,7 +8291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>0</v>
       </c>
@@ -8233,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="D154">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -8269,7 +8338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0</v>
       </c>
@@ -8280,7 +8349,7 @@
         <v>5</v>
       </c>
       <c r="D155">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E155">
         <v>2</v>
@@ -8316,7 +8385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0</v>
       </c>
@@ -8327,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="D156">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E156">
         <v>3</v>
@@ -8363,7 +8432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0</v>
       </c>
@@ -8374,7 +8443,7 @@
         <v>5</v>
       </c>
       <c r="D157">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E157">
         <v>3</v>
@@ -8410,7 +8479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0</v>
       </c>
@@ -8421,7 +8490,7 @@
         <v>3</v>
       </c>
       <c r="D158">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158">
         <v>2</v>
@@ -8457,7 +8526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>0</v>
       </c>
@@ -8468,7 +8537,7 @@
         <v>1</v>
       </c>
       <c r="D159">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E159">
         <v>2</v>
@@ -8504,7 +8573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>0</v>
       </c>
@@ -8515,7 +8584,7 @@
         <v>2</v>
       </c>
       <c r="D160">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E160">
         <v>3</v>
@@ -8551,7 +8620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0</v>
       </c>
@@ -8562,7 +8631,7 @@
         <v>1</v>
       </c>
       <c r="D161">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E161">
         <v>3</v>
@@ -8598,7 +8667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0</v>
       </c>
@@ -8609,7 +8678,7 @@
         <v>1</v>
       </c>
       <c r="D162">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E162">
         <v>2</v>
@@ -8645,7 +8714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0</v>
       </c>
@@ -8656,7 +8725,7 @@
         <v>2</v>
       </c>
       <c r="D163">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E163">
         <v>3</v>
@@ -8692,7 +8761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0</v>
       </c>
@@ -8703,7 +8772,7 @@
         <v>2</v>
       </c>
       <c r="D164">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E164">
         <v>3</v>
@@ -8739,7 +8808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>0</v>
       </c>
@@ -8750,7 +8819,7 @@
         <v>1</v>
       </c>
       <c r="D165">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E165">
         <v>2</v>
@@ -8786,7 +8855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0</v>
       </c>
@@ -8797,7 +8866,7 @@
         <v>5</v>
       </c>
       <c r="D166">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E166">
         <v>2</v>
@@ -8833,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0</v>
       </c>
@@ -8844,7 +8913,7 @@
         <v>5</v>
       </c>
       <c r="D167">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E167">
         <v>2</v>
@@ -8880,7 +8949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>0</v>
       </c>
@@ -8891,7 +8960,7 @@
         <v>1</v>
       </c>
       <c r="D168">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E168">
         <v>3</v>
@@ -8927,7 +8996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>0</v>
       </c>
@@ -8938,7 +9007,7 @@
         <v>3</v>
       </c>
       <c r="D169">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E169">
         <v>2</v>
@@ -8974,7 +9043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1</v>
       </c>
@@ -8985,7 +9054,7 @@
         <v>1</v>
       </c>
       <c r="D170">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E170">
         <v>3</v>
@@ -9021,7 +9090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>1</v>
       </c>
@@ -9032,7 +9101,7 @@
         <v>1</v>
       </c>
       <c r="D171">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E171">
         <v>3</v>
@@ -9068,7 +9137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>1</v>
       </c>
@@ -9079,7 +9148,7 @@
         <v>5</v>
       </c>
       <c r="D172">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E172">
         <v>2</v>
@@ -9115,7 +9184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>1</v>
       </c>
@@ -9126,7 +9195,7 @@
         <v>5</v>
       </c>
       <c r="D173">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E173">
         <v>3</v>
@@ -9162,7 +9231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>1</v>
       </c>
@@ -9173,7 +9242,7 @@
         <v>5</v>
       </c>
       <c r="D174">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E174">
         <v>1</v>
@@ -9209,7 +9278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>1</v>
       </c>
@@ -9220,7 +9289,7 @@
         <v>2</v>
       </c>
       <c r="D175">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E175">
         <v>3</v>
@@ -9256,7 +9325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>1</v>
       </c>
@@ -9267,7 +9336,7 @@
         <v>1</v>
       </c>
       <c r="D176">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E176">
         <v>3</v>
@@ -9303,7 +9372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>1</v>
       </c>
@@ -9314,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="D177">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E177">
         <v>2</v>
@@ -9350,7 +9419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>1</v>
       </c>
@@ -9361,7 +9430,7 @@
         <v>4</v>
       </c>
       <c r="D178">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E178">
         <v>3</v>
@@ -9397,7 +9466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>1</v>
       </c>
@@ -9408,7 +9477,7 @@
         <v>4</v>
       </c>
       <c r="D179">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E179">
         <v>3</v>
@@ -9444,7 +9513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>1</v>
       </c>
@@ -9455,7 +9524,7 @@
         <v>1</v>
       </c>
       <c r="D180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E180">
         <v>3</v>
@@ -9491,7 +9560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>1</v>
       </c>
@@ -9502,7 +9571,7 @@
         <v>2</v>
       </c>
       <c r="D181">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E181">
         <v>2</v>
@@ -9538,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>1</v>
       </c>
@@ -9549,7 +9618,7 @@
         <v>5</v>
       </c>
       <c r="D182">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E182">
         <v>3</v>
@@ -9585,7 +9654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>1</v>
       </c>
@@ -9596,7 +9665,7 @@
         <v>5</v>
       </c>
       <c r="D183">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E183">
         <v>3</v>
@@ -9632,7 +9701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>1</v>
       </c>
@@ -9643,7 +9712,7 @@
         <v>5</v>
       </c>
       <c r="D184">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E184">
         <v>3</v>
@@ -9679,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>1</v>
       </c>
@@ -9690,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="D185">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185">
         <v>3</v>
@@ -9726,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>1</v>
       </c>
@@ -9737,7 +9806,7 @@
         <v>5</v>
       </c>
       <c r="D186">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E186">
         <v>1</v>
@@ -9773,7 +9842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>1</v>
       </c>
@@ -9784,7 +9853,7 @@
         <v>5</v>
       </c>
       <c r="D187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E187">
         <v>2</v>
@@ -9820,7 +9889,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>1</v>
       </c>
@@ -9831,7 +9900,7 @@
         <v>5</v>
       </c>
       <c r="D188">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E188">
         <v>2</v>
@@ -9867,7 +9936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1</v>
       </c>
@@ -9878,7 +9947,7 @@
         <v>5</v>
       </c>
       <c r="D189">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E189">
         <v>3</v>
@@ -9914,7 +9983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>1</v>
       </c>
@@ -9925,7 +9994,7 @@
         <v>2</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E190">
         <v>3</v>
@@ -9961,7 +10030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -9972,7 +10041,7 @@
         <v>1</v>
       </c>
       <c r="D191">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E191">
         <v>3</v>
@@ -10008,7 +10077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>0</v>
       </c>
@@ -10019,7 +10088,7 @@
         <v>2</v>
       </c>
       <c r="D192">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E192">
         <v>2</v>
@@ -10055,7 +10124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0</v>
       </c>
@@ -10066,7 +10135,7 @@
         <v>1</v>
       </c>
       <c r="D193">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E193">
         <v>3</v>
@@ -10102,7 +10171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0</v>
       </c>
@@ -10113,7 +10182,7 @@
         <v>1</v>
       </c>
       <c r="D194">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194">
         <v>2</v>
@@ -10149,7 +10218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0</v>
       </c>
@@ -10196,7 +10265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>0</v>
       </c>
@@ -10207,7 +10276,7 @@
         <v>4</v>
       </c>
       <c r="D196">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E196">
         <v>2</v>
@@ -10243,7 +10312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>0</v>
       </c>
@@ -10254,7 +10323,7 @@
         <v>2</v>
       </c>
       <c r="D197">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -10290,7 +10359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>0</v>
       </c>
@@ -10301,7 +10370,7 @@
         <v>1</v>
       </c>
       <c r="D198">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E198">
         <v>2</v>
@@ -10337,7 +10406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>0</v>
       </c>
@@ -10348,7 +10417,7 @@
         <v>1</v>
       </c>
       <c r="D199">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E199">
         <v>3</v>
@@ -10384,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>0</v>
       </c>
@@ -10395,7 +10464,7 @@
         <v>5</v>
       </c>
       <c r="D200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -10431,7 +10500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>0</v>
       </c>
@@ -10478,7 +10547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>0</v>
       </c>
@@ -10489,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="D202">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E202">
         <v>2</v>
@@ -10525,7 +10594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>0</v>
       </c>
@@ -10536,7 +10605,7 @@
         <v>5</v>
       </c>
       <c r="D203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E203">
         <v>2</v>
@@ -10572,7 +10641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>0</v>
       </c>
@@ -10583,7 +10652,7 @@
         <v>3</v>
       </c>
       <c r="D204">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E204">
         <v>2</v>
@@ -10619,7 +10688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>0</v>
       </c>
@@ -10630,7 +10699,7 @@
         <v>1</v>
       </c>
       <c r="D205">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205">
         <v>2</v>
@@ -10666,7 +10735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0</v>
       </c>
@@ -10677,7 +10746,7 @@
         <v>1</v>
       </c>
       <c r="D206">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E206">
         <v>2</v>
@@ -10713,7 +10782,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0</v>
       </c>
@@ -10724,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="D207">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E207">
         <v>3</v>
@@ -10760,7 +10829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>0</v>
       </c>
@@ -10771,7 +10840,7 @@
         <v>1</v>
       </c>
       <c r="D208">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E208">
         <v>2</v>
@@ -10807,7 +10876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>0</v>
       </c>
@@ -10818,7 +10887,7 @@
         <v>1</v>
       </c>
       <c r="D209">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E209">
         <v>2</v>
@@ -10854,7 +10923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>1</v>
       </c>
@@ -10865,7 +10934,7 @@
         <v>1</v>
       </c>
       <c r="D210">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E210">
         <v>3</v>
@@ -10901,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0</v>
       </c>
@@ -10912,7 +10981,7 @@
         <v>1</v>
       </c>
       <c r="D211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E211">
         <v>3</v>
@@ -10948,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0</v>
       </c>
@@ -10959,7 +11028,7 @@
         <v>1</v>
       </c>
       <c r="D212">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E212">
         <v>3</v>
@@ -10995,7 +11064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0</v>
       </c>
@@ -11006,7 +11075,7 @@
         <v>1</v>
       </c>
       <c r="D213">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E213">
         <v>2</v>
@@ -11042,7 +11111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0</v>
       </c>
@@ -11053,7 +11122,7 @@
         <v>5</v>
       </c>
       <c r="D214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -11089,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>0</v>
       </c>
@@ -11100,7 +11169,7 @@
         <v>2</v>
       </c>
       <c r="D215">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E215">
         <v>3</v>
@@ -11136,7 +11205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>0</v>
       </c>
@@ -11147,7 +11216,7 @@
         <v>1</v>
       </c>
       <c r="D216">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E216">
         <v>2</v>
@@ -11183,7 +11252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>0</v>
       </c>
@@ -11194,7 +11263,7 @@
         <v>1</v>
       </c>
       <c r="D217">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E217">
         <v>3</v>
@@ -11230,7 +11299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>0</v>
       </c>
@@ -11241,7 +11310,7 @@
         <v>1</v>
       </c>
       <c r="D218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E218">
         <v>3</v>
@@ -11277,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>0</v>
       </c>
@@ -11288,7 +11357,7 @@
         <v>2</v>
       </c>
       <c r="D219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E219">
         <v>3</v>
@@ -11324,7 +11393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>0</v>
       </c>
@@ -11335,7 +11404,7 @@
         <v>1</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -11371,7 +11440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0</v>
       </c>
@@ -11382,7 +11451,7 @@
         <v>1</v>
       </c>
       <c r="D221">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E221">
         <v>3</v>
@@ -11418,7 +11487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>0</v>
       </c>
@@ -11429,7 +11498,7 @@
         <v>2</v>
       </c>
       <c r="D222">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E222">
         <v>3</v>
@@ -11465,7 +11534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0</v>
       </c>
@@ -11476,7 +11545,7 @@
         <v>1</v>
       </c>
       <c r="D223">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E223">
         <v>3</v>
@@ -11512,7 +11581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>1</v>
       </c>
@@ -11523,7 +11592,7 @@
         <v>1</v>
       </c>
       <c r="D224">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E224">
         <v>3</v>
@@ -11559,7 +11628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0</v>
       </c>
@@ -11570,7 +11639,7 @@
         <v>1</v>
       </c>
       <c r="D225">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E225">
         <v>3</v>
@@ -11606,7 +11675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0</v>
       </c>
@@ -11617,7 +11686,7 @@
         <v>1</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -11653,7 +11722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0</v>
       </c>
@@ -11664,7 +11733,7 @@
         <v>1</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227">
         <v>2</v>
@@ -11700,7 +11769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>0</v>
       </c>
@@ -11711,7 +11780,7 @@
         <v>2</v>
       </c>
       <c r="D228">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E228">
         <v>2</v>
@@ -11747,7 +11816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>0</v>
       </c>
@@ -11758,7 +11827,7 @@
         <v>5</v>
       </c>
       <c r="D229">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E229">
         <v>2</v>
@@ -11794,7 +11863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>0</v>
       </c>
@@ -11805,7 +11874,7 @@
         <v>1</v>
       </c>
       <c r="D230">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E230">
         <v>3</v>
@@ -11841,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>0</v>
       </c>
@@ -11852,7 +11921,7 @@
         <v>2</v>
       </c>
       <c r="D231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E231">
         <v>2</v>
@@ -11888,7 +11957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>0</v>
       </c>
@@ -11899,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="D232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E232">
         <v>3</v>
@@ -11935,7 +12004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0</v>
       </c>
@@ -11946,7 +12015,7 @@
         <v>5</v>
       </c>
       <c r="D233">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -11982,7 +12051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0</v>
       </c>
@@ -11993,7 +12062,7 @@
         <v>1</v>
       </c>
       <c r="D234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E234">
         <v>2</v>
@@ -12029,7 +12098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0</v>
       </c>
@@ -12040,7 +12109,7 @@
         <v>4</v>
       </c>
       <c r="D235">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E235">
         <v>2</v>
@@ -12076,7 +12145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0</v>
       </c>
@@ -12087,7 +12156,7 @@
         <v>1</v>
       </c>
       <c r="D236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E236">
         <v>2</v>
@@ -12123,7 +12192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0</v>
       </c>
@@ -12134,7 +12203,7 @@
         <v>2</v>
       </c>
       <c r="D237">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E237">
         <v>2</v>
@@ -12170,7 +12239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>1</v>
       </c>
@@ -12181,7 +12250,7 @@
         <v>3</v>
       </c>
       <c r="D238">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E238">
         <v>3</v>
@@ -12217,7 +12286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0</v>
       </c>
@@ -12228,7 +12297,7 @@
         <v>1</v>
       </c>
       <c r="D239">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E239">
         <v>2</v>
@@ -12264,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>1</v>
       </c>
@@ -12275,7 +12344,7 @@
         <v>4</v>
       </c>
       <c r="D240">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240">
         <v>2</v>
@@ -12311,7 +12380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0</v>
       </c>
@@ -12322,7 +12391,7 @@
         <v>5</v>
       </c>
       <c r="D241">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E241">
         <v>2</v>
@@ -12358,7 +12427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0</v>
       </c>
@@ -12369,7 +12438,7 @@
         <v>4</v>
       </c>
       <c r="D242">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E242">
         <v>3</v>
@@ -12405,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>0</v>
       </c>
@@ -12416,7 +12485,7 @@
         <v>2</v>
       </c>
       <c r="D243">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E243">
         <v>3</v>
@@ -12452,7 +12521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0</v>
       </c>
@@ -12463,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="D244">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E244">
         <v>3</v>
@@ -12499,7 +12568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0</v>
       </c>
@@ -12510,7 +12579,7 @@
         <v>1</v>
       </c>
       <c r="D245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E245">
         <v>3</v>
@@ -12546,7 +12615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>0</v>
       </c>
@@ -12557,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="D246">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246">
         <v>2</v>
@@ -12593,7 +12662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>0</v>
       </c>
@@ -12604,7 +12673,7 @@
         <v>3</v>
       </c>
       <c r="D247">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E247">
         <v>3</v>
@@ -12640,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>0</v>
       </c>
@@ -12687,7 +12756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>0</v>
       </c>
@@ -12698,7 +12767,7 @@
         <v>1</v>
       </c>
       <c r="D249">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E249">
         <v>2</v>
@@ -12734,7 +12803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>0</v>
       </c>
@@ -12745,7 +12814,7 @@
         <v>1</v>
       </c>
       <c r="D250">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E250">
         <v>2</v>
@@ -12781,7 +12850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0</v>
       </c>
@@ -12792,7 +12861,7 @@
         <v>5</v>
       </c>
       <c r="D251">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E251">
         <v>3</v>
@@ -12828,7 +12897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0</v>
       </c>
@@ -12839,7 +12908,7 @@
         <v>5</v>
       </c>
       <c r="D252">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E252">
         <v>2</v>
@@ -12875,7 +12944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>0</v>
       </c>
@@ -12886,7 +12955,7 @@
         <v>2</v>
       </c>
       <c r="D253">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E253">
         <v>3</v>
@@ -12922,7 +12991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>0</v>
       </c>
@@ -12933,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="D254">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E254">
         <v>3</v>
@@ -12969,7 +13038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>1</v>
       </c>
@@ -12980,7 +13049,7 @@
         <v>2</v>
       </c>
       <c r="D255">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E255">
         <v>3</v>
@@ -13016,7 +13085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>1</v>
       </c>
@@ -13027,7 +13096,7 @@
         <v>2</v>
       </c>
       <c r="D256">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E256">
         <v>3</v>
@@ -13063,7 +13132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>1</v>
       </c>
@@ -13074,7 +13143,7 @@
         <v>5</v>
       </c>
       <c r="D257">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E257">
         <v>3</v>
@@ -13110,7 +13179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1</v>
       </c>
@@ -13121,7 +13190,7 @@
         <v>2</v>
       </c>
       <c r="D258">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E258">
         <v>3</v>
@@ -13157,7 +13226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>1</v>
       </c>
@@ -13168,7 +13237,7 @@
         <v>2</v>
       </c>
       <c r="D259">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E259">
         <v>3</v>
@@ -13204,7 +13273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>1</v>
       </c>
@@ -13215,7 +13284,7 @@
         <v>2</v>
       </c>
       <c r="D260">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E260">
         <v>3</v>
@@ -13251,7 +13320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>1</v>
       </c>
@@ -13262,7 +13331,7 @@
         <v>1</v>
       </c>
       <c r="D261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E261">
         <v>3</v>
@@ -13298,7 +13367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1</v>
       </c>
@@ -13309,7 +13378,7 @@
         <v>2</v>
       </c>
       <c r="D262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E262">
         <v>3</v>
@@ -13345,7 +13414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>1</v>
       </c>
@@ -13356,7 +13425,7 @@
         <v>5</v>
       </c>
       <c r="D263">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E263">
         <v>3</v>
@@ -13392,7 +13461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>1</v>
       </c>
@@ -13403,7 +13472,7 @@
         <v>4</v>
       </c>
       <c r="D264">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E264">
         <v>3</v>
@@ -13439,7 +13508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>1</v>
       </c>
@@ -13450,7 +13519,7 @@
         <v>1</v>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E265">
         <v>3</v>
@@ -13486,7 +13555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>1</v>
       </c>
@@ -13497,7 +13566,7 @@
         <v>2</v>
       </c>
       <c r="D266">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E266">
         <v>3</v>
@@ -13533,7 +13602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>1</v>
       </c>
@@ -13544,7 +13613,7 @@
         <v>1</v>
       </c>
       <c r="D267">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E267">
         <v>3</v>
@@ -13580,7 +13649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>1</v>
       </c>
@@ -13591,7 +13660,7 @@
         <v>2</v>
       </c>
       <c r="D268">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E268">
         <v>2</v>
@@ -13627,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>1</v>
       </c>
@@ -13638,7 +13707,7 @@
         <v>3</v>
       </c>
       <c r="D269">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E269">
         <v>3</v>
@@ -13674,7 +13743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>1</v>
       </c>
@@ -13685,7 +13754,7 @@
         <v>4</v>
       </c>
       <c r="D270">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -13721,7 +13790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1</v>
       </c>
@@ -13732,7 +13801,7 @@
         <v>2</v>
       </c>
       <c r="D271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E271">
         <v>3</v>
@@ -13768,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>1</v>
       </c>
@@ -13779,7 +13848,7 @@
         <v>5</v>
       </c>
       <c r="D272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E272">
         <v>3</v>
@@ -13815,7 +13884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>1</v>
       </c>
@@ -13826,7 +13895,7 @@
         <v>5</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E273">
         <v>3</v>
@@ -13862,7 +13931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1</v>
       </c>
@@ -13873,7 +13942,7 @@
         <v>5</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E274">
         <v>3</v>
@@ -13909,7 +13978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>1</v>
       </c>
@@ -13920,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="D275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E275">
         <v>2</v>
@@ -13956,7 +14025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>1</v>
       </c>
@@ -13967,7 +14036,7 @@
         <v>1</v>
       </c>
       <c r="D276">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E276">
         <v>2</v>
@@ -14003,7 +14072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>1</v>
       </c>
@@ -14050,7 +14119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>1</v>
       </c>
@@ -14097,7 +14166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>1</v>
       </c>
@@ -14144,7 +14213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>1</v>
       </c>
@@ -14191,7 +14260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>1</v>
       </c>
@@ -14238,7 +14307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0</v>
       </c>
@@ -14285,7 +14354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0</v>
       </c>
@@ -14332,7 +14401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0</v>
       </c>
@@ -14379,7 +14448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0</v>
       </c>
@@ -14426,7 +14495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0</v>
       </c>
@@ -14473,7 +14542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>1</v>
       </c>
@@ -14520,7 +14589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1</v>
       </c>
@@ -14567,7 +14636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>0</v>
       </c>
@@ -14614,7 +14683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0</v>
       </c>
@@ -14661,7 +14730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0</v>
       </c>
@@ -14708,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0</v>
       </c>
@@ -14755,7 +14824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>1</v>
       </c>
@@ -14802,7 +14871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>1</v>
       </c>
@@ -14849,7 +14918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>1</v>
       </c>
@@ -14896,7 +14965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>1</v>
       </c>
@@ -14943,7 +15012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1</v>
       </c>
@@ -14990,7 +15059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>0</v>
       </c>
@@ -15037,7 +15106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0</v>
       </c>
@@ -15084,7 +15153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0</v>
       </c>
@@ -15131,7 +15200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0</v>
       </c>
@@ -15178,7 +15247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0</v>
       </c>
@@ -15225,7 +15294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0</v>
       </c>
@@ -15272,7 +15341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0</v>
       </c>
@@ -15319,7 +15388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0</v>
       </c>
@@ -15366,7 +15435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0</v>
       </c>
@@ -15413,7 +15482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0</v>
       </c>
@@ -15460,7 +15529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0</v>
       </c>
@@ -15507,7 +15576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0</v>
       </c>
@@ -15518,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="D309">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E309">
         <v>3</v>
@@ -15554,7 +15623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0</v>
       </c>
@@ -15565,7 +15634,7 @@
         <v>1</v>
       </c>
       <c r="D310">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E310">
         <v>2</v>
@@ -15601,7 +15670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>1</v>
       </c>
@@ -15612,7 +15681,7 @@
         <v>1</v>
       </c>
       <c r="D311">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E311">
         <v>3</v>
@@ -15648,7 +15717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>1</v>
       </c>
@@ -15659,7 +15728,7 @@
         <v>1</v>
       </c>
       <c r="D312">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E312">
         <v>3</v>
@@ -15695,7 +15764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>1</v>
       </c>
@@ -15706,7 +15775,7 @@
         <v>5</v>
       </c>
       <c r="D313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E313">
         <v>2</v>
@@ -15742,7 +15811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>1</v>
       </c>
@@ -15753,7 +15822,7 @@
         <v>5</v>
       </c>
       <c r="D314">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E314">
         <v>3</v>
@@ -15789,7 +15858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>1</v>
       </c>
@@ -15800,7 +15869,7 @@
         <v>5</v>
       </c>
       <c r="D315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E315">
         <v>1</v>
@@ -15836,7 +15905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>1</v>
       </c>
@@ -15847,7 +15916,7 @@
         <v>2</v>
       </c>
       <c r="D316">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -15883,7 +15952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>1</v>
       </c>
@@ -15894,7 +15963,7 @@
         <v>1</v>
       </c>
       <c r="D317">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E317">
         <v>3</v>
@@ -15930,7 +15999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>1</v>
       </c>
@@ -15941,7 +16010,7 @@
         <v>1</v>
       </c>
       <c r="D318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E318">
         <v>2</v>
@@ -15977,7 +16046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1</v>
       </c>
@@ -15988,7 +16057,7 @@
         <v>4</v>
       </c>
       <c r="D319">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E319">
         <v>3</v>
@@ -16024,7 +16093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1</v>
       </c>
@@ -16035,7 +16104,7 @@
         <v>4</v>
       </c>
       <c r="D320">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320">
         <v>3</v>
@@ -16071,7 +16140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>1</v>
       </c>
@@ -16082,7 +16151,7 @@
         <v>1</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E321">
         <v>3</v>
@@ -16118,7 +16187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>1</v>
       </c>
@@ -16129,7 +16198,7 @@
         <v>2</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E322">
         <v>2</v>
@@ -16165,7 +16234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>1</v>
       </c>
@@ -16176,7 +16245,7 @@
         <v>5</v>
       </c>
       <c r="D323">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -16212,7 +16281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>1</v>
       </c>
@@ -16223,7 +16292,7 @@
         <v>5</v>
       </c>
       <c r="D324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -16259,7 +16328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>1</v>
       </c>
@@ -16270,7 +16339,7 @@
         <v>5</v>
       </c>
       <c r="D325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E325">
         <v>3</v>
@@ -16306,7 +16375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>1</v>
       </c>
@@ -16317,7 +16386,7 @@
         <v>1</v>
       </c>
       <c r="D326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E326">
         <v>3</v>
@@ -16353,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>1</v>
       </c>
@@ -16364,7 +16433,7 @@
         <v>5</v>
       </c>
       <c r="D327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E327">
         <v>1</v>
@@ -16400,7 +16469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>1</v>
       </c>
@@ -16411,7 +16480,7 @@
         <v>5</v>
       </c>
       <c r="D328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E328">
         <v>2</v>
@@ -16447,7 +16516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>1</v>
       </c>
@@ -16458,7 +16527,7 @@
         <v>5</v>
       </c>
       <c r="D329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E329">
         <v>2</v>
@@ -16494,7 +16563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>1</v>
       </c>
@@ -16505,7 +16574,7 @@
         <v>5</v>
       </c>
       <c r="D330">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E330">
         <v>3</v>
@@ -16541,7 +16610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>1</v>
       </c>
@@ -16552,7 +16621,7 @@
         <v>2</v>
       </c>
       <c r="D331">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E331">
         <v>3</v>
@@ -16588,7 +16657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1</v>
       </c>
@@ -16599,7 +16668,7 @@
         <v>5</v>
       </c>
       <c r="D332">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E332">
         <v>3</v>
@@ -16635,7 +16704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>1</v>
       </c>
@@ -16646,7 +16715,7 @@
         <v>2</v>
       </c>
       <c r="D333">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E333">
         <v>3</v>
@@ -16682,7 +16751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>1</v>
       </c>
@@ -16693,7 +16762,7 @@
         <v>2</v>
       </c>
       <c r="D334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E334">
         <v>3</v>
@@ -16729,7 +16798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>1</v>
       </c>
@@ -16740,7 +16809,7 @@
         <v>1</v>
       </c>
       <c r="D335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E335">
         <v>3</v>
@@ -16776,7 +16845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>1</v>
       </c>
@@ -16787,7 +16856,7 @@
         <v>5</v>
       </c>
       <c r="D336">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E336">
         <v>3</v>
@@ -16823,7 +16892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>1</v>
       </c>
@@ -16834,7 +16903,7 @@
         <v>4</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E337">
         <v>3</v>
@@ -16870,7 +16939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>0</v>
       </c>
@@ -16917,7 +16986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>0</v>
       </c>
@@ -16964,7 +17033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>0</v>
       </c>
@@ -17011,7 +17080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>0</v>
       </c>
@@ -17058,7 +17127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>0</v>
       </c>
@@ -17105,7 +17174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>0</v>
       </c>
@@ -17152,7 +17221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>0</v>
       </c>
@@ -17199,7 +17268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>0</v>
       </c>
@@ -17246,7 +17315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>0</v>
       </c>
@@ -17293,7 +17362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>0</v>
       </c>
@@ -17340,7 +17409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>0</v>
       </c>
@@ -17387,7 +17456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>0</v>
       </c>
@@ -17398,7 +17467,7 @@
         <v>1</v>
       </c>
       <c r="D349">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E349">
         <v>3</v>
@@ -17434,7 +17503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>0</v>
       </c>
@@ -17445,7 +17514,7 @@
         <v>1</v>
       </c>
       <c r="D350">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E350">
         <v>2</v>
@@ -17481,7 +17550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>0</v>
       </c>
@@ -17492,7 +17561,7 @@
         <v>1</v>
       </c>
       <c r="D351">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E351">
         <v>2</v>
@@ -17528,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>0</v>
       </c>
@@ -17539,7 +17608,7 @@
         <v>1</v>
       </c>
       <c r="D352">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E352">
         <v>2</v>
@@ -17575,7 +17644,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>1</v>
       </c>
@@ -17586,7 +17655,7 @@
         <v>1</v>
       </c>
       <c r="D353">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E353">
         <v>3</v>
@@ -17622,7 +17691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>0</v>
       </c>
@@ -17633,7 +17702,7 @@
         <v>1</v>
       </c>
       <c r="D354">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E354">
         <v>3</v>
@@ -17669,7 +17738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>0</v>
       </c>
@@ -17680,7 +17749,7 @@
         <v>1</v>
       </c>
       <c r="D355">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E355">
         <v>3</v>
@@ -17716,7 +17785,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>0</v>
       </c>
@@ -17727,7 +17796,7 @@
         <v>1</v>
       </c>
       <c r="D356">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E356">
         <v>2</v>
@@ -17763,7 +17832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>0</v>
       </c>
@@ -17774,7 +17843,7 @@
         <v>5</v>
       </c>
       <c r="D357">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E357">
         <v>1</v>
@@ -17810,7 +17879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>0</v>
       </c>
@@ -17821,7 +17890,7 @@
         <v>2</v>
       </c>
       <c r="D358">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E358">
         <v>3</v>
@@ -17857,7 +17926,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>0</v>
       </c>
@@ -17868,7 +17937,7 @@
         <v>1</v>
       </c>
       <c r="D359">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E359">
         <v>2</v>
@@ -17904,7 +17973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>0</v>
       </c>
@@ -17915,7 +17984,7 @@
         <v>1</v>
       </c>
       <c r="D360">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E360">
         <v>3</v>
@@ -17951,7 +18020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>0</v>
       </c>
@@ -17962,7 +18031,7 @@
         <v>1</v>
       </c>
       <c r="D361">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E361">
         <v>3</v>
@@ -17998,7 +18067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>0</v>
       </c>
@@ -18009,7 +18078,7 @@
         <v>2</v>
       </c>
       <c r="D362">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E362">
         <v>3</v>
@@ -18045,7 +18114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>0</v>
       </c>
@@ -18056,7 +18125,7 @@
         <v>1</v>
       </c>
       <c r="D363">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E363">
         <v>1</v>
@@ -18092,7 +18161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>0</v>
       </c>
@@ -18103,7 +18172,7 @@
         <v>1</v>
       </c>
       <c r="D364">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E364">
         <v>3</v>
@@ -18139,7 +18208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>0</v>
       </c>
@@ -18150,7 +18219,7 @@
         <v>2</v>
       </c>
       <c r="D365">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E365">
         <v>3</v>
@@ -18186,7 +18255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>0</v>
       </c>
@@ -18197,7 +18266,7 @@
         <v>1</v>
       </c>
       <c r="D366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E366">
         <v>3</v>
@@ -18233,7 +18302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>1</v>
       </c>
@@ -18244,7 +18313,7 @@
         <v>1</v>
       </c>
       <c r="D367">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E367">
         <v>3</v>
@@ -18280,7 +18349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>0</v>
       </c>
@@ -18291,7 +18360,7 @@
         <v>1</v>
       </c>
       <c r="D368">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E368">
         <v>3</v>
@@ -18327,7 +18396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>0</v>
       </c>
@@ -18338,7 +18407,7 @@
         <v>1</v>
       </c>
       <c r="D369">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E369">
         <v>1</v>
@@ -18374,7 +18443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>0</v>
       </c>
@@ -18385,7 +18454,7 @@
         <v>1</v>
       </c>
       <c r="D370">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E370">
         <v>2</v>
@@ -18421,7 +18490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>0</v>
       </c>
@@ -18432,7 +18501,7 @@
         <v>2</v>
       </c>
       <c r="D371">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E371">
         <v>2</v>
@@ -18468,7 +18537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>0</v>
       </c>
@@ -18479,7 +18548,7 @@
         <v>5</v>
       </c>
       <c r="D372">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E372">
         <v>2</v>
@@ -18515,7 +18584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>0</v>
       </c>
@@ -18526,7 +18595,7 @@
         <v>1</v>
       </c>
       <c r="D373">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E373">
         <v>3</v>
@@ -18562,7 +18631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>0</v>
       </c>
@@ -18573,7 +18642,7 @@
         <v>2</v>
       </c>
       <c r="D374">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E374">
         <v>2</v>
@@ -18609,7 +18678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>0</v>
       </c>
@@ -18620,7 +18689,7 @@
         <v>1</v>
       </c>
       <c r="D375">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E375">
         <v>3</v>
@@ -18656,7 +18725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>0</v>
       </c>
@@ -18667,7 +18736,7 @@
         <v>5</v>
       </c>
       <c r="D376">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E376">
         <v>1</v>
@@ -18703,7 +18772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>0</v>
       </c>
@@ -18714,7 +18783,7 @@
         <v>1</v>
       </c>
       <c r="D377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E377">
         <v>2</v>
@@ -18750,7 +18819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>0</v>
       </c>
@@ -18761,7 +18830,7 @@
         <v>4</v>
       </c>
       <c r="D378">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E378">
         <v>2</v>
@@ -18797,7 +18866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>0</v>
       </c>
@@ -18808,7 +18877,7 @@
         <v>1</v>
       </c>
       <c r="D379">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E379">
         <v>2</v>
@@ -18844,7 +18913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>0</v>
       </c>
@@ -18855,7 +18924,7 @@
         <v>2</v>
       </c>
       <c r="D380">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E380">
         <v>2</v>
@@ -18891,7 +18960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>0</v>
       </c>
@@ -18902,7 +18971,7 @@
         <v>1</v>
       </c>
       <c r="D381">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E381">
         <v>2</v>
@@ -18938,7 +19007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>0</v>
       </c>
@@ -18949,7 +19018,7 @@
         <v>5</v>
       </c>
       <c r="D382">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E382">
         <v>2</v>
@@ -18985,7 +19054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>0</v>
       </c>
@@ -18996,7 +19065,7 @@
         <v>4</v>
       </c>
       <c r="D383">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E383">
         <v>3</v>
@@ -19032,7 +19101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>0</v>
       </c>
@@ -19043,7 +19112,7 @@
         <v>2</v>
       </c>
       <c r="D384">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E384">
         <v>3</v>
@@ -19079,7 +19148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>0</v>
       </c>
@@ -19090,7 +19159,7 @@
         <v>1</v>
       </c>
       <c r="D385">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E385">
         <v>3</v>
@@ -19126,7 +19195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>0</v>
       </c>
@@ -19137,7 +19206,7 @@
         <v>1</v>
       </c>
       <c r="D386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E386">
         <v>3</v>
@@ -19173,7 +19242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>0</v>
       </c>
@@ -19184,7 +19253,7 @@
         <v>1</v>
       </c>
       <c r="D387">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E387">
         <v>2</v>
@@ -19220,7 +19289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>0</v>
       </c>
@@ -19231,7 +19300,7 @@
         <v>3</v>
       </c>
       <c r="D388">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E388">
         <v>3</v>
@@ -19267,7 +19336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>0</v>
       </c>
@@ -19314,7 +19383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>0</v>
       </c>
@@ -19325,7 +19394,7 @@
         <v>1</v>
       </c>
       <c r="D390">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E390">
         <v>2</v>
@@ -19361,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>0</v>
       </c>
@@ -19372,7 +19441,7 @@
         <v>1</v>
       </c>
       <c r="D391">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E391">
         <v>2</v>
@@ -19408,7 +19477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>0</v>
       </c>
@@ -19419,7 +19488,7 @@
         <v>5</v>
       </c>
       <c r="D392">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E392">
         <v>3</v>
@@ -19455,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>0</v>
       </c>
@@ -19466,7 +19535,7 @@
         <v>5</v>
       </c>
       <c r="D393">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E393">
         <v>2</v>
@@ -19502,7 +19571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>0</v>
       </c>
@@ -19513,7 +19582,7 @@
         <v>2</v>
       </c>
       <c r="D394">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E394">
         <v>3</v>
@@ -19549,7 +19618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>0</v>
       </c>
@@ -19560,7 +19629,7 @@
         <v>1</v>
       </c>
       <c r="D395">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E395">
         <v>3</v>
@@ -19599,5 +19668,6 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/project/dmy/moon.xlsx
+++ b/project/dmy/moon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\大月亮\Downloads\WPy64-3720\notebooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA7C1DC-F2CE-4380-AF68-B3D28CD17F55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B35CD-2123-4170-986F-D39CF9FA8E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="15634" windowHeight="9892" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="13695" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moon" sheetId="1" r:id="rId1"/>
@@ -42,10 +42,10 @@
     <t>N</t>
   </si>
   <si>
-    <t xml:space="preserve">Infiltration </t>
+    <t>M</t>
   </si>
   <si>
-    <t xml:space="preserve">Luminal </t>
+    <t xml:space="preserve">Infiltration </t>
   </si>
   <si>
     <t>Risk</t>
@@ -79,14 +79,15 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>M</t>
+    <t>Luminal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,13 +246,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -551,7 +545,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="43">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -678,14 +672,16 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="43">
+  <cellStyles count="42">
     <cellStyle name="20% - 着色 1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - 着色 2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - 着色 3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -711,7 +707,6 @@
     <cellStyle name="标题 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="差" xfId="7" builtinId="27" customBuiltin="1"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="42" xr:uid="{68E2BF11-6EBF-4805-BCB8-BDDD65BA2A98}"/>
     <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="汇总" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="计算" xfId="11" builtinId="22" customBuiltin="1"/>
@@ -730,58 +725,7 @@
     <cellStyle name="着色 6" xfId="38" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="15" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="5">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1091,24 +1035,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O395"/>
+  <dimension ref="A1:O406"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A396" sqref="A396:XFD400"/>
+      <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A271" sqref="A271:XFD275"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="9.1328125" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>6</v>
@@ -1129,7 +1076,7 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="K1" t="s">
         <v>12</v>
@@ -1144,15 +1091,15 @@
         <v>11</v>
       </c>
       <c r="O1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -1194,8 +1141,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A3" s="1">
         <v>0</v>
       </c>
       <c r="B3">
@@ -1241,8 +1188,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A4" s="1">
         <v>0</v>
       </c>
       <c r="B4">
@@ -1288,8 +1235,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5">
@@ -1335,8 +1282,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A6" s="1">
         <v>0</v>
       </c>
       <c r="B6">
@@ -1382,8 +1329,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A7" s="1">
         <v>0</v>
       </c>
       <c r="B7">
@@ -1429,8 +1376,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A8" s="1">
         <v>0</v>
       </c>
       <c r="B8">
@@ -1476,8 +1423,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A9" s="1">
         <v>0</v>
       </c>
       <c r="B9">
@@ -1523,8 +1470,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A10" s="1">
         <v>0</v>
       </c>
       <c r="B10">
@@ -1570,8 +1517,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A11" s="1">
         <v>1</v>
       </c>
       <c r="B11">
@@ -1617,8 +1564,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A12" s="1">
         <v>0</v>
       </c>
       <c r="B12">
@@ -1664,8 +1611,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A13">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A13" s="1">
         <v>0</v>
       </c>
       <c r="B13">
@@ -1711,8 +1658,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A14">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A14" s="1">
         <v>0</v>
       </c>
       <c r="B14">
@@ -1758,8 +1705,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A15" s="1">
         <v>0</v>
       </c>
       <c r="B15">
@@ -1805,8 +1752,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A16" s="1">
         <v>0</v>
       </c>
       <c r="B16">
@@ -1852,8 +1799,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A17">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A17" s="1">
         <v>1</v>
       </c>
       <c r="B17">
@@ -1899,12 +1846,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A18">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A18" s="1">
         <v>0</v>
       </c>
       <c r="B18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -1946,8 +1893,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A19">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19">
@@ -1993,8 +1940,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A20">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A20" s="1">
         <v>0</v>
       </c>
       <c r="B20">
@@ -2040,8 +1987,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A21">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21">
@@ -2087,8 +2034,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A22">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A22" s="1">
         <v>0</v>
       </c>
       <c r="B22">
@@ -2134,8 +2081,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A23">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A23" s="1">
         <v>0</v>
       </c>
       <c r="B23">
@@ -2181,8 +2128,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A24">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A24" s="1">
         <v>0</v>
       </c>
       <c r="B24">
@@ -2228,8 +2175,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25">
@@ -2275,8 +2222,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A26">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A26" s="1">
         <v>0</v>
       </c>
       <c r="B26">
@@ -2322,8 +2269,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A27">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A27" s="1">
         <v>0</v>
       </c>
       <c r="B27">
@@ -2369,8 +2316,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A28">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28">
@@ -2416,8 +2363,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A29">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A29" s="1">
         <v>0</v>
       </c>
       <c r="B29">
@@ -2463,8 +2410,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A30">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A30" s="1">
         <v>0</v>
       </c>
       <c r="B30">
@@ -2510,8 +2457,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A31">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A31" s="1">
         <v>0</v>
       </c>
       <c r="B31">
@@ -2557,8 +2504,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A32">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A32" s="1">
         <v>0</v>
       </c>
       <c r="B32">
@@ -2604,8 +2551,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A33">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A33" s="1">
         <v>0</v>
       </c>
       <c r="B33">
@@ -2651,8 +2598,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A34">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A34" s="1">
         <v>0</v>
       </c>
       <c r="B34">
@@ -2698,8 +2645,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A35" s="1">
         <v>0</v>
       </c>
       <c r="B35">
@@ -2745,8 +2692,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A36">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A36" s="1">
         <v>0</v>
       </c>
       <c r="B36">
@@ -2792,8 +2739,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A37">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A37" s="1">
         <v>0</v>
       </c>
       <c r="B37">
@@ -2839,8 +2786,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A38">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A38" s="1">
         <v>0</v>
       </c>
       <c r="B38">
@@ -2886,8 +2833,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A39">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A39" s="1">
         <v>0</v>
       </c>
       <c r="B39">
@@ -2933,8 +2880,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A40">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A40" s="1">
         <v>1</v>
       </c>
       <c r="B40">
@@ -2980,8 +2927,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A41">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A41" s="1">
         <v>0</v>
       </c>
       <c r="B41">
@@ -3027,8 +2974,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A42">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A42" s="1">
         <v>0</v>
       </c>
       <c r="B42">
@@ -3074,8 +3021,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A43">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A43" s="1">
         <v>0</v>
       </c>
       <c r="B43">
@@ -3121,8 +3068,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A44">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A44" s="1">
         <v>0</v>
       </c>
       <c r="B44">
@@ -3168,8 +3115,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A45">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A45" s="1">
         <v>0</v>
       </c>
       <c r="B45">
@@ -3215,8 +3162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A46">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A46" s="1">
         <v>1</v>
       </c>
       <c r="B46">
@@ -3262,8 +3209,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A47">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A47" s="1">
         <v>0</v>
       </c>
       <c r="B47">
@@ -3309,8 +3256,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A48">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A48" s="1">
         <v>0</v>
       </c>
       <c r="B48">
@@ -3356,8 +3303,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A49">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A49" s="1">
         <v>1</v>
       </c>
       <c r="B49">
@@ -3403,8 +3350,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A50">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A50" s="1">
         <v>0</v>
       </c>
       <c r="B50">
@@ -3450,8 +3397,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A51">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A51" s="1">
         <v>0</v>
       </c>
       <c r="B51">
@@ -3497,8 +3444,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A52">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A52" s="1">
         <v>0</v>
       </c>
       <c r="B52">
@@ -3544,8 +3491,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A53">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A53" s="1">
         <v>1</v>
       </c>
       <c r="B53">
@@ -3591,15 +3538,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A54">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A54" s="1">
         <v>0</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>3</v>
@@ -3638,8 +3585,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A55">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A55" s="1">
         <v>0</v>
       </c>
       <c r="B55">
@@ -3685,15 +3632,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A56">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A56" s="1">
         <v>1</v>
       </c>
       <c r="B56">
         <v>2</v>
       </c>
       <c r="C56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>2</v>
@@ -3732,8 +3679,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A57">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A57" s="1">
         <v>0</v>
       </c>
       <c r="B57">
@@ -3779,8 +3726,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A58">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A58" s="1">
         <v>0</v>
       </c>
       <c r="B58">
@@ -3826,8 +3773,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A59">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A59" s="1">
         <v>0</v>
       </c>
       <c r="B59">
@@ -3873,8 +3820,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A60">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A60" s="1">
         <v>0</v>
       </c>
       <c r="B60">
@@ -3920,8 +3867,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A61">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A61" s="1">
         <v>0</v>
       </c>
       <c r="B61">
@@ -3967,8 +3914,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A62">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A62" s="1">
         <v>0</v>
       </c>
       <c r="B62">
@@ -4014,8 +3961,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A63">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A63" s="1">
         <v>0</v>
       </c>
       <c r="B63">
@@ -4061,15 +4008,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A64">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A64" s="1">
         <v>0</v>
       </c>
       <c r="B64">
         <v>2</v>
       </c>
       <c r="C64">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>2</v>
@@ -4108,8 +4055,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A65">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A65" s="1">
         <v>0</v>
       </c>
       <c r="B65">
@@ -4155,8 +4102,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A66">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A66" s="1">
         <v>0</v>
       </c>
       <c r="B66">
@@ -4202,15 +4149,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A67">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A67" s="1">
         <v>0</v>
       </c>
       <c r="B67">
         <v>3</v>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D67">
         <v>3</v>
@@ -4249,8 +4196,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A68">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A68" s="1">
         <v>0</v>
       </c>
       <c r="B68">
@@ -4296,8 +4243,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A69">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A69" s="1">
         <v>0</v>
       </c>
       <c r="B69">
@@ -4343,8 +4290,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A70">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A70" s="1">
         <v>0</v>
       </c>
       <c r="B70">
@@ -4390,8 +4337,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A71">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A71" s="1">
         <v>0</v>
       </c>
       <c r="B71">
@@ -4437,8 +4384,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A72">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A72" s="1">
         <v>0</v>
       </c>
       <c r="B72">
@@ -4484,15 +4431,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A73">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A73" s="1">
         <v>0</v>
       </c>
       <c r="B73">
         <v>1</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73">
         <v>2</v>
@@ -4531,8 +4478,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A74">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A74" s="1">
         <v>0</v>
       </c>
       <c r="B74">
@@ -4578,8 +4525,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A75">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A75" s="1">
         <v>0</v>
       </c>
       <c r="B75">
@@ -4625,8 +4572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A76">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A76" s="1">
         <v>0</v>
       </c>
       <c r="B76">
@@ -4672,8 +4619,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A77">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A77" s="1">
         <v>0</v>
       </c>
       <c r="B77">
@@ -4719,8 +4666,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A78">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A78" s="1">
         <v>0</v>
       </c>
       <c r="B78">
@@ -4766,8 +4713,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A79">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A79" s="1">
         <v>0</v>
       </c>
       <c r="B79">
@@ -4813,8 +4760,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A80">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A80" s="1">
         <v>0</v>
       </c>
       <c r="B80">
@@ -4860,8 +4807,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A81">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A81" s="1">
         <v>0</v>
       </c>
       <c r="B81">
@@ -4907,8 +4854,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A82">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A82" s="1">
         <v>0</v>
       </c>
       <c r="B82">
@@ -4954,8 +4901,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A83">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A83" s="1">
         <v>0</v>
       </c>
       <c r="B83">
@@ -5001,8 +4948,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A84">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A84" s="1">
         <v>1</v>
       </c>
       <c r="B84">
@@ -5048,8 +4995,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A85">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A85" s="1">
         <v>0</v>
       </c>
       <c r="B85">
@@ -5095,8 +5042,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A86">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A86" s="1">
         <v>0</v>
       </c>
       <c r="B86">
@@ -5142,8 +5089,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A87">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A87" s="1">
         <v>0</v>
       </c>
       <c r="B87">
@@ -5189,8 +5136,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A88">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A88" s="1">
         <v>0</v>
       </c>
       <c r="B88">
@@ -5236,8 +5183,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A89">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A89" s="1">
         <v>1</v>
       </c>
       <c r="B89">
@@ -5283,8 +5230,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A90">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A90" s="1">
         <v>0</v>
       </c>
       <c r="B90">
@@ -5330,8 +5277,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A91">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A91" s="1">
         <v>0</v>
       </c>
       <c r="B91">
@@ -5377,8 +5324,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A92">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A92" s="1">
         <v>0</v>
       </c>
       <c r="B92">
@@ -5424,8 +5371,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A93">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A93" s="1">
         <v>0</v>
       </c>
       <c r="B93">
@@ -5471,8 +5418,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A94">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A94" s="1">
         <v>0</v>
       </c>
       <c r="B94">
@@ -5518,15 +5465,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A95">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A95" s="1">
         <v>0</v>
       </c>
       <c r="B95">
         <v>1</v>
       </c>
       <c r="C95">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D95">
         <v>2</v>
@@ -5565,8 +5512,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A96">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A96" s="1">
         <v>0</v>
       </c>
       <c r="B96">
@@ -5612,15 +5559,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A97">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A97" s="1">
         <v>0</v>
       </c>
       <c r="B97">
         <v>3</v>
       </c>
       <c r="C97">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D97">
         <v>3</v>
@@ -5659,8 +5606,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A98">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A98" s="1">
         <v>0</v>
       </c>
       <c r="B98">
@@ -5706,8 +5653,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A99">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A99" s="1">
         <v>0</v>
       </c>
       <c r="B99">
@@ -5753,8 +5700,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A100">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A100" s="1">
         <v>0</v>
       </c>
       <c r="B100">
@@ -5800,8 +5747,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A101">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A101" s="1">
         <v>0</v>
       </c>
       <c r="B101">
@@ -5847,8 +5794,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A102">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A102" s="1">
         <v>0</v>
       </c>
       <c r="B102">
@@ -5894,8 +5841,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A103">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A103" s="1">
         <v>0</v>
       </c>
       <c r="B103">
@@ -5941,8 +5888,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A104">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A104" s="1">
         <v>0</v>
       </c>
       <c r="B104">
@@ -5988,8 +5935,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A105">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A105" s="1">
         <v>0</v>
       </c>
       <c r="B105">
@@ -6035,8 +5982,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A106">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A106" s="1">
         <v>0</v>
       </c>
       <c r="B106">
@@ -6082,8 +6029,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A107">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A107" s="1">
         <v>0</v>
       </c>
       <c r="B107">
@@ -6129,8 +6076,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A108">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A108" s="1">
         <v>0</v>
       </c>
       <c r="B108">
@@ -6176,8 +6123,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A109">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A109" s="1">
         <v>0</v>
       </c>
       <c r="B109">
@@ -6223,8 +6170,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A110">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A110" s="1">
         <v>0</v>
       </c>
       <c r="B110">
@@ -6270,8 +6217,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A111">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A111" s="1">
         <v>0</v>
       </c>
       <c r="B111">
@@ -6317,8 +6264,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A112">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A112" s="1">
         <v>0</v>
       </c>
       <c r="B112">
@@ -6364,8 +6311,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A113">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A113" s="1">
         <v>0</v>
       </c>
       <c r="B113">
@@ -6411,8 +6358,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A114">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A114" s="1">
         <v>0</v>
       </c>
       <c r="B114">
@@ -6458,15 +6405,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A115">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A115" s="1">
         <v>0</v>
       </c>
       <c r="B115">
         <v>2</v>
       </c>
       <c r="C115">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D115">
         <v>3</v>
@@ -6505,8 +6452,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A116">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A116" s="1">
         <v>0</v>
       </c>
       <c r="B116">
@@ -6552,15 +6499,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A117">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A117" s="1">
         <v>0</v>
       </c>
       <c r="B117">
         <v>1</v>
       </c>
       <c r="C117">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>2</v>
@@ -6599,8 +6546,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A118">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A118" s="1">
         <v>0</v>
       </c>
       <c r="B118">
@@ -6646,8 +6593,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A119">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A119" s="1">
         <v>0</v>
       </c>
       <c r="B119">
@@ -6693,8 +6640,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A120">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A120" s="1">
         <v>0</v>
       </c>
       <c r="B120">
@@ -6740,8 +6687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A121">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A121" s="1">
         <v>0</v>
       </c>
       <c r="B121">
@@ -6787,8 +6734,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A122">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A122" s="1">
         <v>0</v>
       </c>
       <c r="B122">
@@ -6834,8 +6781,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A123">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A123" s="1">
         <v>0</v>
       </c>
       <c r="B123">
@@ -6881,8 +6828,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A124">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A124" s="1">
         <v>0</v>
       </c>
       <c r="B124">
@@ -6928,8 +6875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A125">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A125" s="1">
         <v>0</v>
       </c>
       <c r="B125">
@@ -6975,8 +6922,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A126">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A126" s="1">
         <v>0</v>
       </c>
       <c r="B126">
@@ -7022,8 +6969,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A127">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A127" s="1">
         <v>0</v>
       </c>
       <c r="B127">
@@ -7069,8 +7016,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A128">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A128" s="1">
         <v>0</v>
       </c>
       <c r="B128">
@@ -7116,8 +7063,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A129">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A129" s="1">
         <v>0</v>
       </c>
       <c r="B129">
@@ -7163,8 +7110,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A130">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A130" s="1">
         <v>0</v>
       </c>
       <c r="B130">
@@ -7210,8 +7157,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A131">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A131" s="1">
         <v>0</v>
       </c>
       <c r="B131">
@@ -7257,8 +7204,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A132">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A132" s="1">
         <v>0</v>
       </c>
       <c r="B132">
@@ -7304,8 +7251,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A133">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A133" s="1">
         <v>0</v>
       </c>
       <c r="B133">
@@ -7351,8 +7298,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A134">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A134" s="1">
         <v>0</v>
       </c>
       <c r="B134">
@@ -7398,8 +7345,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A135">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A135" s="1">
         <v>0</v>
       </c>
       <c r="B135">
@@ -7445,8 +7392,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A136">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A136" s="1">
         <v>0</v>
       </c>
       <c r="B136">
@@ -7492,8 +7439,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A137">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A137" s="1">
         <v>0</v>
       </c>
       <c r="B137">
@@ -7539,8 +7486,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A138">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A138" s="1">
         <v>0</v>
       </c>
       <c r="B138">
@@ -7586,8 +7533,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A139">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A139" s="1">
         <v>0</v>
       </c>
       <c r="B139">
@@ -7633,8 +7580,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A140">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A140" s="1">
         <v>0</v>
       </c>
       <c r="B140">
@@ -7680,8 +7627,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A141">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A141" s="1">
         <v>0</v>
       </c>
       <c r="B141">
@@ -7727,8 +7674,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A142">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A142" s="1">
         <v>0</v>
       </c>
       <c r="B142">
@@ -7774,8 +7721,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A143">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A143" s="1">
         <v>0</v>
       </c>
       <c r="B143">
@@ -7821,8 +7768,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A144">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A144" s="1">
         <v>0</v>
       </c>
       <c r="B144">
@@ -7868,8 +7815,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A145">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A145" s="1">
         <v>0</v>
       </c>
       <c r="B145">
@@ -7915,8 +7862,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A146">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A146" s="1">
         <v>0</v>
       </c>
       <c r="B146">
@@ -7962,8 +7909,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A147">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A147" s="1">
         <v>0</v>
       </c>
       <c r="B147">
@@ -8009,8 +7956,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A148">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A148" s="1">
         <v>0</v>
       </c>
       <c r="B148">
@@ -8056,8 +8003,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A149">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A149" s="1">
         <v>0</v>
       </c>
       <c r="B149">
@@ -8103,8 +8050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A150">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A150" s="1">
         <v>0</v>
       </c>
       <c r="B150">
@@ -8150,8 +8097,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A151">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A151" s="1">
         <v>0</v>
       </c>
       <c r="B151">
@@ -8197,8 +8144,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A152">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A152" s="1">
         <v>0</v>
       </c>
       <c r="B152">
@@ -8244,8 +8191,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A153">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A153" s="1">
         <v>0</v>
       </c>
       <c r="B153">
@@ -8291,15 +8238,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A154">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A154" s="1">
         <v>0</v>
       </c>
       <c r="B154">
         <v>2</v>
       </c>
       <c r="C154">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>3</v>
@@ -8338,8 +8285,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A155">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A155" s="1">
         <v>0</v>
       </c>
       <c r="B155">
@@ -8385,8 +8332,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A156">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A156" s="1">
         <v>0</v>
       </c>
       <c r="B156">
@@ -8432,8 +8379,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A157">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A157" s="1">
         <v>0</v>
       </c>
       <c r="B157">
@@ -8479,8 +8426,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A158">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A158" s="1">
         <v>0</v>
       </c>
       <c r="B158">
@@ -8526,8 +8473,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A159">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A159" s="1">
         <v>0</v>
       </c>
       <c r="B159">
@@ -8573,15 +8520,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A160">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A160" s="1">
         <v>0</v>
       </c>
       <c r="B160">
         <v>1</v>
       </c>
       <c r="C160">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D160">
         <v>2</v>
@@ -8620,8 +8567,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A161">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A161" s="1">
         <v>0</v>
       </c>
       <c r="B161">
@@ -8667,8 +8614,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A162">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A162" s="1">
         <v>0</v>
       </c>
       <c r="B162">
@@ -8714,8 +8661,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A163">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A163" s="1">
         <v>0</v>
       </c>
       <c r="B163">
@@ -8761,8 +8708,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A164">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A164" s="1">
         <v>0</v>
       </c>
       <c r="B164">
@@ -8808,8 +8755,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A165">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A165" s="1">
         <v>0</v>
       </c>
       <c r="B165">
@@ -8855,8 +8802,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A166">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A166" s="1">
         <v>0</v>
       </c>
       <c r="B166">
@@ -8902,8 +8849,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A167">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A167" s="1">
         <v>0</v>
       </c>
       <c r="B167">
@@ -8949,8 +8896,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A168">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A168" s="1">
         <v>0</v>
       </c>
       <c r="B168">
@@ -8996,8 +8943,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A169">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A169" s="1">
         <v>0</v>
       </c>
       <c r="B169">
@@ -9043,15 +8990,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A170">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A170" s="1">
         <v>1</v>
       </c>
       <c r="B170">
         <v>2</v>
       </c>
       <c r="C170">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D170">
         <v>3</v>
@@ -9090,8 +9037,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A171">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A171" s="1">
         <v>1</v>
       </c>
       <c r="B171">
@@ -9137,8 +9084,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A172">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A172" s="1">
         <v>1</v>
       </c>
       <c r="B172">
@@ -9184,8 +9131,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A173">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A173" s="1">
         <v>1</v>
       </c>
       <c r="B173">
@@ -9231,8 +9178,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A174">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A174" s="1">
         <v>1</v>
       </c>
       <c r="B174">
@@ -9278,8 +9225,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A175">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A175" s="1">
         <v>1</v>
       </c>
       <c r="B175">
@@ -9325,15 +9272,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A176">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A176" s="1">
         <v>1</v>
       </c>
       <c r="B176">
         <v>3</v>
       </c>
       <c r="C176">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D176">
         <v>3</v>
@@ -9372,15 +9319,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A177">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A177" s="1">
         <v>1</v>
       </c>
       <c r="B177">
         <v>3</v>
       </c>
       <c r="C177">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D177">
         <v>3</v>
@@ -9419,15 +9366,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A178">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A178" s="1">
         <v>1</v>
       </c>
       <c r="B178">
         <v>3</v>
       </c>
       <c r="C178">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D178">
         <v>3</v>
@@ -9466,15 +9413,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A179">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A179" s="1">
         <v>1</v>
       </c>
       <c r="B179">
         <v>3</v>
       </c>
       <c r="C179">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D179">
         <v>3</v>
@@ -9513,15 +9460,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A180">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A180" s="1">
         <v>1</v>
       </c>
       <c r="B180">
         <v>4</v>
       </c>
       <c r="C180">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>2</v>
@@ -9560,8 +9507,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A181">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A181" s="1">
         <v>1</v>
       </c>
       <c r="B181">
@@ -9607,8 +9554,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A182">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A182" s="1">
         <v>1</v>
       </c>
       <c r="B182">
@@ -9654,8 +9601,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A183">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A183" s="1">
         <v>1</v>
       </c>
       <c r="B183">
@@ -9701,8 +9648,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A184">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A184" s="1">
         <v>1</v>
       </c>
       <c r="B184">
@@ -9748,8 +9695,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A185">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A185" s="1">
         <v>1</v>
       </c>
       <c r="B185">
@@ -9795,8 +9742,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A186">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A186" s="1">
         <v>1</v>
       </c>
       <c r="B186">
@@ -9842,8 +9789,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A187">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A187" s="1">
         <v>1</v>
       </c>
       <c r="B187">
@@ -9889,8 +9836,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A188">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A188" s="1">
         <v>1</v>
       </c>
       <c r="B188">
@@ -9936,8 +9883,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A189">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A189" s="1">
         <v>1</v>
       </c>
       <c r="B189">
@@ -9983,8 +9930,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A190">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A190" s="1">
         <v>1</v>
       </c>
       <c r="B190">
@@ -10030,8 +9977,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A191">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A191" s="1">
         <v>0</v>
       </c>
       <c r="B191">
@@ -10077,8 +10024,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A192">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A192" s="1">
         <v>0</v>
       </c>
       <c r="B192">
@@ -10124,8 +10071,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A193">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A193" s="1">
         <v>0</v>
       </c>
       <c r="B193">
@@ -10171,8 +10118,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A194">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A194" s="1">
         <v>0</v>
       </c>
       <c r="B194">
@@ -10218,8 +10165,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A195">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A195" s="1">
         <v>0</v>
       </c>
       <c r="B195">
@@ -10265,8 +10212,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A196">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A196" s="1">
         <v>0</v>
       </c>
       <c r="B196">
@@ -10312,8 +10259,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A197">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A197" s="1">
         <v>0</v>
       </c>
       <c r="B197">
@@ -10359,8 +10306,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A198">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A198" s="1">
         <v>0</v>
       </c>
       <c r="B198">
@@ -10406,8 +10353,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A199">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A199" s="1">
         <v>0</v>
       </c>
       <c r="B199">
@@ -10453,8 +10400,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A200">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A200" s="1">
         <v>0</v>
       </c>
       <c r="B200">
@@ -10500,8 +10447,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A201">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A201" s="1">
         <v>0</v>
       </c>
       <c r="B201">
@@ -10547,8 +10494,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A202">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A202" s="1">
         <v>0</v>
       </c>
       <c r="B202">
@@ -10594,8 +10541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A203">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A203" s="1">
         <v>0</v>
       </c>
       <c r="B203">
@@ -10641,8 +10588,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A204">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A204" s="1">
         <v>0</v>
       </c>
       <c r="B204">
@@ -10688,8 +10635,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A205">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A205" s="1">
         <v>0</v>
       </c>
       <c r="B205">
@@ -10735,8 +10682,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A206">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A206" s="1">
         <v>0</v>
       </c>
       <c r="B206">
@@ -10782,8 +10729,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A207">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A207" s="1">
         <v>0</v>
       </c>
       <c r="B207">
@@ -10829,8 +10776,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A208">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A208" s="1">
         <v>0</v>
       </c>
       <c r="B208">
@@ -10876,8 +10823,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A209">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A209" s="1">
         <v>0</v>
       </c>
       <c r="B209">
@@ -10923,8 +10870,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A210">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A210" s="1">
         <v>1</v>
       </c>
       <c r="B210">
@@ -10970,15 +10917,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A211">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A211" s="1">
         <v>0</v>
       </c>
       <c r="B211">
         <v>1</v>
       </c>
       <c r="C211">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D211">
         <v>2</v>
@@ -11017,8 +10964,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A212">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A212" s="1">
         <v>0</v>
       </c>
       <c r="B212">
@@ -11064,8 +11011,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A213">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A213" s="1">
         <v>0</v>
       </c>
       <c r="B213">
@@ -11111,8 +11058,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A214">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A214" s="1">
         <v>0</v>
       </c>
       <c r="B214">
@@ -11158,8 +11105,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A215">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A215" s="1">
         <v>0</v>
       </c>
       <c r="B215">
@@ -11205,8 +11152,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A216">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A216" s="1">
         <v>0</v>
       </c>
       <c r="B216">
@@ -11252,8 +11199,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A217">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A217" s="1">
         <v>0</v>
       </c>
       <c r="B217">
@@ -11299,15 +11246,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A218">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A218" s="1">
         <v>0</v>
       </c>
       <c r="B218">
         <v>1</v>
       </c>
       <c r="C218">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D218">
         <v>2</v>
@@ -11346,8 +11293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A219">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A219" s="1">
         <v>0</v>
       </c>
       <c r="B219">
@@ -11393,8 +11340,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A220">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A220" s="1">
         <v>0</v>
       </c>
       <c r="B220">
@@ -11440,8 +11387,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A221">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A221" s="1">
         <v>0</v>
       </c>
       <c r="B221">
@@ -11487,8 +11434,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A222">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A222" s="1">
         <v>0</v>
       </c>
       <c r="B222">
@@ -11534,8 +11481,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A223">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A223" s="1">
         <v>0</v>
       </c>
       <c r="B223">
@@ -11581,8 +11528,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A224">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A224" s="1">
         <v>1</v>
       </c>
       <c r="B224">
@@ -11628,8 +11575,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A225">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A225" s="1">
         <v>0</v>
       </c>
       <c r="B225">
@@ -11675,8 +11622,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A226">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A226" s="1">
         <v>0</v>
       </c>
       <c r="B226">
@@ -11722,8 +11669,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A227">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A227" s="1">
         <v>0</v>
       </c>
       <c r="B227">
@@ -11769,8 +11716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A228">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A228" s="1">
         <v>0</v>
       </c>
       <c r="B228">
@@ -11816,8 +11763,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A229">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A229" s="1">
         <v>0</v>
       </c>
       <c r="B229">
@@ -11863,8 +11810,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A230">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A230" s="1">
         <v>0</v>
       </c>
       <c r="B230">
@@ -11910,8 +11857,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A231">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A231" s="1">
         <v>0</v>
       </c>
       <c r="B231">
@@ -11957,8 +11904,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A232">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A232" s="1">
         <v>0</v>
       </c>
       <c r="B232">
@@ -12004,8 +11951,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A233">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A233" s="1">
         <v>0</v>
       </c>
       <c r="B233">
@@ -12051,15 +11998,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A234">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A234" s="1">
         <v>0</v>
       </c>
       <c r="B234">
         <v>1</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
         <v>2</v>
@@ -12098,8 +12045,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A235">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A235" s="1">
         <v>0</v>
       </c>
       <c r="B235">
@@ -12145,8 +12092,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A236">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A236" s="1">
         <v>0</v>
       </c>
       <c r="B236">
@@ -12192,8 +12139,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A237">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A237" s="1">
         <v>0</v>
       </c>
       <c r="B237">
@@ -12239,8 +12186,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A238">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A238" s="1">
         <v>1</v>
       </c>
       <c r="B238">
@@ -12286,8 +12233,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A239">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A239" s="1">
         <v>0</v>
       </c>
       <c r="B239">
@@ -12333,8 +12280,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A240">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A240" s="1">
         <v>1</v>
       </c>
       <c r="B240">
@@ -12380,8 +12327,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A241">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A241" s="1">
         <v>0</v>
       </c>
       <c r="B241">
@@ -12427,8 +12374,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A242">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A242" s="1">
         <v>0</v>
       </c>
       <c r="B242">
@@ -12474,8 +12421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A243">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A243" s="1">
         <v>0</v>
       </c>
       <c r="B243">
@@ -12521,8 +12468,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A244">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A244" s="1">
         <v>0</v>
       </c>
       <c r="B244">
@@ -12568,15 +12515,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A245">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A245" s="1">
         <v>0</v>
       </c>
       <c r="B245">
         <v>1</v>
       </c>
       <c r="C245">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D245">
         <v>2</v>
@@ -12615,8 +12562,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A246">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A246" s="1">
         <v>0</v>
       </c>
       <c r="B246">
@@ -12662,8 +12609,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A247">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A247" s="1">
         <v>0</v>
       </c>
       <c r="B247">
@@ -12709,15 +12656,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A248">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A248" s="1">
         <v>0</v>
       </c>
       <c r="B248">
         <v>1</v>
       </c>
       <c r="C248">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -12756,8 +12703,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A249">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A249" s="1">
         <v>0</v>
       </c>
       <c r="B249">
@@ -12803,8 +12750,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A250">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A250" s="1">
         <v>0</v>
       </c>
       <c r="B250">
@@ -12850,8 +12797,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A251">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A251" s="1">
         <v>0</v>
       </c>
       <c r="B251">
@@ -12897,8 +12844,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A252">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A252" s="1">
         <v>0</v>
       </c>
       <c r="B252">
@@ -12944,8 +12891,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A253">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A253" s="1">
         <v>0</v>
       </c>
       <c r="B253">
@@ -12991,8 +12938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A254">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A254" s="1">
         <v>0</v>
       </c>
       <c r="B254">
@@ -13038,8 +12985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A255">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A255" s="1">
         <v>1</v>
       </c>
       <c r="B255">
@@ -13085,8 +13032,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A256">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A256" s="1">
         <v>1</v>
       </c>
       <c r="B256">
@@ -13132,8 +13079,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A257">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A257" s="1">
         <v>1</v>
       </c>
       <c r="B257">
@@ -13179,8 +13126,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A258">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A258" s="1">
         <v>1</v>
       </c>
       <c r="B258">
@@ -13226,8 +13173,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A259">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A259" s="1">
         <v>1</v>
       </c>
       <c r="B259">
@@ -13273,8 +13220,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A260">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A260" s="1">
         <v>1</v>
       </c>
       <c r="B260">
@@ -13320,8 +13267,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A261">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A261" s="1">
         <v>1</v>
       </c>
       <c r="B261">
@@ -13367,15 +13314,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A262">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A262" s="1">
         <v>1</v>
       </c>
       <c r="B262">
         <v>4</v>
       </c>
       <c r="C262">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D262">
         <v>3</v>
@@ -13414,8 +13361,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A263">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A263" s="1">
         <v>1</v>
       </c>
       <c r="B263">
@@ -13461,8 +13408,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A264">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A264" s="1">
         <v>1</v>
       </c>
       <c r="B264">
@@ -13508,8 +13455,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A265">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A265" s="1">
         <v>1</v>
       </c>
       <c r="B265">
@@ -13555,8 +13502,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A266">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A266" s="1">
         <v>1</v>
       </c>
       <c r="B266">
@@ -13602,8 +13549,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A267">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A267" s="1">
         <v>1</v>
       </c>
       <c r="B267">
@@ -13649,8 +13596,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A268">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A268" s="1">
         <v>1</v>
       </c>
       <c r="B268">
@@ -13696,8 +13643,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A269">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A269" s="1">
         <v>1</v>
       </c>
       <c r="B269">
@@ -13743,8 +13690,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A270">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A270" s="1">
         <v>1</v>
       </c>
       <c r="B270">
@@ -13790,18 +13737,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A271">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A271" s="1">
         <v>1</v>
       </c>
       <c r="B271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C271">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E271">
         <v>3</v>
@@ -13810,25 +13757,25 @@
         <v>1</v>
       </c>
       <c r="G271">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I271">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J271">
         <v>0</v>
       </c>
       <c r="K271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L271">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M271">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N271">
         <v>2</v>
@@ -13837,15 +13784,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A272">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A272" s="1">
         <v>1</v>
       </c>
       <c r="B272">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C272">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D272">
         <v>3</v>
@@ -13854,7 +13801,7 @@
         <v>3</v>
       </c>
       <c r="F272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -13863,83 +13810,83 @@
         <v>2</v>
       </c>
       <c r="I272">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J272">
         <v>0</v>
       </c>
       <c r="K272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N272">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O272">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A273" s="1">
         <v>1</v>
       </c>
       <c r="B273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C273">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E273">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F273">
         <v>0</v>
       </c>
       <c r="G273">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H273">
         <v>1</v>
       </c>
       <c r="I273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J273">
         <v>0</v>
       </c>
       <c r="K273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L273">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M273">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O273">
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A274">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A274" s="1">
         <v>1</v>
       </c>
       <c r="B274">
         <v>3</v>
       </c>
       <c r="C274">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D274">
         <v>3</v>
@@ -13951,7 +13898,7 @@
         <v>0</v>
       </c>
       <c r="G274">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H274">
         <v>1</v>
@@ -13963,48 +13910,48 @@
         <v>0</v>
       </c>
       <c r="K274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L274">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M274">
         <v>1</v>
       </c>
       <c r="N274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O274">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A275">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A275" s="1">
         <v>1</v>
       </c>
       <c r="B275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F275">
         <v>1</v>
       </c>
       <c r="G275">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H275">
         <v>2</v>
       </c>
       <c r="I275">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J275">
         <v>0</v>
@@ -14016,24 +13963,24 @@
         <v>1</v>
       </c>
       <c r="M275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N275">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O275">
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A276">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A276" s="1">
         <v>1</v>
       </c>
       <c r="B276">
         <v>2</v>
       </c>
       <c r="C276">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D276">
         <v>3</v>
@@ -14072,8 +14019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A277">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A277" s="1">
         <v>1</v>
       </c>
       <c r="B277">
@@ -14119,8 +14066,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A278">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A278" s="1">
         <v>1</v>
       </c>
       <c r="B278">
@@ -14157,7 +14104,7 @@
         <v>0</v>
       </c>
       <c r="M278">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N278">
         <v>2</v>
@@ -14166,8 +14113,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A279">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A279" s="1">
         <v>1</v>
       </c>
       <c r="B279">
@@ -14213,8 +14160,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A280">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A280" s="1">
         <v>1</v>
       </c>
       <c r="B280">
@@ -14251,7 +14198,7 @@
         <v>2</v>
       </c>
       <c r="M280">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N280">
         <v>1</v>
@@ -14260,8 +14207,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A281">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A281" s="1">
         <v>1</v>
       </c>
       <c r="B281">
@@ -14298,7 +14245,7 @@
         <v>0</v>
       </c>
       <c r="M281">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N281">
         <v>2</v>
@@ -14307,8 +14254,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A282">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A282" s="1">
         <v>0</v>
       </c>
       <c r="B282">
@@ -14354,8 +14301,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A283">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A283" s="1">
         <v>0</v>
       </c>
       <c r="B283">
@@ -14401,8 +14348,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A284">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A284" s="1">
         <v>0</v>
       </c>
       <c r="B284">
@@ -14448,8 +14395,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A285">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A285" s="1">
         <v>0</v>
       </c>
       <c r="B285">
@@ -14495,8 +14442,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A286">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A286" s="1">
         <v>0</v>
       </c>
       <c r="B286">
@@ -14542,8 +14489,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A287">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A287" s="1">
         <v>1</v>
       </c>
       <c r="B287">
@@ -14589,8 +14536,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A288">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A288" s="1">
         <v>1</v>
       </c>
       <c r="B288">
@@ -14636,8 +14583,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A289">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A289" s="1">
         <v>0</v>
       </c>
       <c r="B289">
@@ -14683,8 +14630,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A290">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A290" s="1">
         <v>0</v>
       </c>
       <c r="B290">
@@ -14730,8 +14677,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A291">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A291" s="1">
         <v>0</v>
       </c>
       <c r="B291">
@@ -14777,8 +14724,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A292">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A292" s="1">
         <v>0</v>
       </c>
       <c r="B292">
@@ -14824,8 +14771,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A293">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A293" s="1">
         <v>1</v>
       </c>
       <c r="B293">
@@ -14871,8 +14818,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A294">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A294" s="1">
         <v>1</v>
       </c>
       <c r="B294">
@@ -14918,8 +14865,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A295">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A295" s="1">
         <v>1</v>
       </c>
       <c r="B295">
@@ -14965,15 +14912,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A296">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A296" s="1">
         <v>1</v>
       </c>
       <c r="B296">
         <v>3</v>
       </c>
       <c r="C296">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D296">
         <v>3</v>
@@ -15012,8 +14959,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A297">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A297" s="1">
         <v>1</v>
       </c>
       <c r="B297">
@@ -15059,8 +15006,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A298">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A298" s="1">
         <v>0</v>
       </c>
       <c r="B298">
@@ -15097,7 +15044,7 @@
         <v>1</v>
       </c>
       <c r="M298">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N298">
         <v>2</v>
@@ -15106,8 +15053,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A299">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A299" s="1">
         <v>0</v>
       </c>
       <c r="B299">
@@ -15153,8 +15100,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A300">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A300" s="1">
         <v>0</v>
       </c>
       <c r="B300">
@@ -15200,15 +15147,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A301">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A301" s="1">
         <v>0</v>
       </c>
       <c r="B301">
         <v>2</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
         <v>2</v>
@@ -15247,8 +15194,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A302">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A302" s="1">
         <v>0</v>
       </c>
       <c r="B302">
@@ -15285,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="M302">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N302">
         <v>1</v>
@@ -15294,8 +15241,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A303">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A303" s="1">
         <v>0</v>
       </c>
       <c r="B303">
@@ -15341,8 +15288,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A304">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A304" s="1">
         <v>0</v>
       </c>
       <c r="B304">
@@ -15379,7 +15326,7 @@
         <v>1</v>
       </c>
       <c r="M304">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N304">
         <v>1</v>
@@ -15388,8 +15335,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A305">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A305" s="1">
         <v>0</v>
       </c>
       <c r="B305">
@@ -15435,15 +15382,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A306">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A306" s="1">
         <v>0</v>
       </c>
       <c r="B306">
         <v>1</v>
       </c>
       <c r="C306">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D306">
         <v>2</v>
@@ -15482,8 +15429,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A307">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A307" s="1">
         <v>0</v>
       </c>
       <c r="B307">
@@ -15520,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="M307">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N307">
         <v>1</v>
@@ -15529,8 +15476,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A308">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A308" s="1">
         <v>0</v>
       </c>
       <c r="B308">
@@ -15576,15 +15523,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A309">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A309" s="1">
         <v>0</v>
       </c>
       <c r="B309">
         <v>2</v>
       </c>
       <c r="C309">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D309">
         <v>3</v>
@@ -15623,8 +15570,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A310">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A310" s="1">
         <v>0</v>
       </c>
       <c r="B310">
@@ -15670,15 +15617,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A311">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A311" s="1">
         <v>1</v>
       </c>
       <c r="B311">
         <v>2</v>
       </c>
       <c r="C311">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D311">
         <v>3</v>
@@ -15717,24 +15664,24 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A312">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A312" s="1">
         <v>1</v>
       </c>
       <c r="B312">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C312">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D312">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E312">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G312">
         <v>2</v>
@@ -15743,16 +15690,16 @@
         <v>2</v>
       </c>
       <c r="I312">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J312">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L312">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M312">
         <v>1</v>
@@ -15764,55 +15711,55 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A313">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A313" s="1">
         <v>1</v>
       </c>
       <c r="B313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C313">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E313">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G313">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H313">
         <v>2</v>
       </c>
       <c r="I313">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J313">
         <v>0</v>
       </c>
       <c r="K313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L313">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M313">
         <v>1</v>
       </c>
       <c r="N313">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O313">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A314">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A314" s="1">
         <v>1</v>
       </c>
       <c r="B314">
@@ -15825,10 +15772,10 @@
         <v>3</v>
       </c>
       <c r="E314">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F314">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G314">
         <v>3</v>
@@ -15849,21 +15796,21 @@
         <v>0</v>
       </c>
       <c r="M314">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N314">
         <v>2</v>
       </c>
       <c r="O314">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A315">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A315" s="1">
         <v>1</v>
       </c>
       <c r="B315">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C315">
         <v>5</v>
@@ -15872,13 +15819,13 @@
         <v>3</v>
       </c>
       <c r="E315">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F315">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G315">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H315">
         <v>2</v>
@@ -15887,7 +15834,7 @@
         <v>3</v>
       </c>
       <c r="J315">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K315">
         <v>0</v>
@@ -15896,42 +15843,42 @@
         <v>0</v>
       </c>
       <c r="M315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N315">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O315">
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A316">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A316" s="1">
         <v>1</v>
       </c>
       <c r="B316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C316">
         <v>2</v>
       </c>
       <c r="D316">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E316">
         <v>3</v>
       </c>
       <c r="F316">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H316">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I316">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J316">
         <v>0</v>
@@ -15946,36 +15893,36 @@
         <v>1</v>
       </c>
       <c r="N316">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O316">
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A317">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A317" s="1">
         <v>1</v>
       </c>
       <c r="B317">
         <v>3</v>
       </c>
       <c r="C317">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D317">
         <v>3</v>
       </c>
       <c r="E317">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F317">
         <v>0</v>
       </c>
       <c r="G317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H317">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I317">
         <v>3</v>
@@ -15984,10 +15931,10 @@
         <v>0</v>
       </c>
       <c r="K317">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L317">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M317">
         <v>1</v>
@@ -15999,30 +15946,30 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A318">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A318" s="1">
         <v>1</v>
       </c>
       <c r="B318">
         <v>3</v>
       </c>
       <c r="C318">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D318">
         <v>3</v>
       </c>
       <c r="E318">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F318">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I318">
         <v>3</v>
@@ -16034,263 +15981,263 @@
         <v>0</v>
       </c>
       <c r="L318">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N318">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O318">
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A319">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A319" s="1">
         <v>1</v>
       </c>
       <c r="B319">
         <v>3</v>
       </c>
       <c r="C319">
+        <v>5</v>
+      </c>
+      <c r="D319">
+        <v>3</v>
+      </c>
+      <c r="E319">
+        <v>3</v>
+      </c>
+      <c r="F319">
+        <v>1</v>
+      </c>
+      <c r="G319">
+        <v>2</v>
+      </c>
+      <c r="H319">
+        <v>2</v>
+      </c>
+      <c r="I319">
+        <v>3</v>
+      </c>
+      <c r="J319">
+        <v>0</v>
+      </c>
+      <c r="K319">
+        <v>0</v>
+      </c>
+      <c r="L319">
+        <v>0</v>
+      </c>
+      <c r="M319">
+        <v>2</v>
+      </c>
+      <c r="N319">
+        <v>1</v>
+      </c>
+      <c r="O319">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A320" s="1">
+        <v>1</v>
+      </c>
+      <c r="B320">
         <v>4</v>
       </c>
-      <c r="D319">
-        <v>3</v>
-      </c>
-      <c r="E319">
-        <v>3</v>
-      </c>
-      <c r="F319">
-        <v>1</v>
-      </c>
-      <c r="G319">
-        <v>2</v>
-      </c>
-      <c r="H319">
-        <v>2</v>
-      </c>
-      <c r="I319">
-        <v>3</v>
-      </c>
-      <c r="J319">
-        <v>0</v>
-      </c>
-      <c r="K319">
-        <v>0</v>
-      </c>
-      <c r="L319">
-        <v>0</v>
-      </c>
-      <c r="M319">
-        <v>2</v>
-      </c>
-      <c r="N319">
-        <v>2</v>
-      </c>
-      <c r="O319">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A320">
-        <v>1</v>
-      </c>
-      <c r="B320">
-        <v>3</v>
-      </c>
       <c r="C320">
+        <v>2</v>
+      </c>
+      <c r="D320">
+        <v>2</v>
+      </c>
+      <c r="E320">
+        <v>3</v>
+      </c>
+      <c r="F320">
+        <v>0</v>
+      </c>
+      <c r="G320">
+        <v>3</v>
+      </c>
+      <c r="H320">
+        <v>1</v>
+      </c>
+      <c r="I320">
+        <v>0</v>
+      </c>
+      <c r="J320">
+        <v>1</v>
+      </c>
+      <c r="K320">
+        <v>1</v>
+      </c>
+      <c r="L320">
+        <v>0</v>
+      </c>
+      <c r="M320">
+        <v>2</v>
+      </c>
+      <c r="N320">
+        <v>1</v>
+      </c>
+      <c r="O320">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A321" s="1">
+        <v>1</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321">
+        <v>2</v>
+      </c>
+      <c r="E321">
+        <v>2</v>
+      </c>
+      <c r="F321">
+        <v>0</v>
+      </c>
+      <c r="G321">
+        <v>2</v>
+      </c>
+      <c r="H321">
+        <v>3</v>
+      </c>
+      <c r="I321">
+        <v>0</v>
+      </c>
+      <c r="J321">
+        <v>0</v>
+      </c>
+      <c r="K321">
+        <v>1</v>
+      </c>
+      <c r="L321">
+        <v>1</v>
+      </c>
+      <c r="M321">
+        <v>1</v>
+      </c>
+      <c r="N321">
+        <v>2</v>
+      </c>
+      <c r="O321">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A322" s="1">
+        <v>1</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>5</v>
+      </c>
+      <c r="D322">
+        <v>2</v>
+      </c>
+      <c r="E322">
+        <v>3</v>
+      </c>
+      <c r="F322">
+        <v>0</v>
+      </c>
+      <c r="G322">
+        <v>2</v>
+      </c>
+      <c r="H322">
+        <v>3</v>
+      </c>
+      <c r="I322">
+        <v>0</v>
+      </c>
+      <c r="J322">
+        <v>0</v>
+      </c>
+      <c r="K322">
+        <v>0</v>
+      </c>
+      <c r="L322">
+        <v>0</v>
+      </c>
+      <c r="M322">
+        <v>2</v>
+      </c>
+      <c r="N322">
+        <v>2</v>
+      </c>
+      <c r="O322">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A323">
+        <v>1</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
         <v>4</v>
       </c>
-      <c r="D320">
-        <v>3</v>
-      </c>
-      <c r="E320">
-        <v>3</v>
-      </c>
-      <c r="F320">
-        <v>1</v>
-      </c>
-      <c r="G320">
-        <v>2</v>
-      </c>
-      <c r="H320">
-        <v>2</v>
-      </c>
-      <c r="I320">
-        <v>3</v>
-      </c>
-      <c r="J320">
-        <v>0</v>
-      </c>
-      <c r="K320">
-        <v>0</v>
-      </c>
-      <c r="L320">
-        <v>0</v>
-      </c>
-      <c r="M320">
-        <v>2</v>
-      </c>
-      <c r="N320">
-        <v>1</v>
-      </c>
-      <c r="O320">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A321">
-        <v>1</v>
-      </c>
-      <c r="B321">
+      <c r="D323">
+        <v>2</v>
+      </c>
+      <c r="E323">
+        <v>2</v>
+      </c>
+      <c r="F323">
+        <v>0</v>
+      </c>
+      <c r="G323">
+        <v>2</v>
+      </c>
+      <c r="H323">
+        <v>2</v>
+      </c>
+      <c r="I323">
+        <v>0</v>
+      </c>
+      <c r="J323">
+        <v>0</v>
+      </c>
+      <c r="K323">
+        <v>0</v>
+      </c>
+      <c r="L323">
+        <v>0</v>
+      </c>
+      <c r="M323">
+        <v>3</v>
+      </c>
+      <c r="N323">
+        <v>2</v>
+      </c>
+      <c r="O323">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A324">
+        <v>1</v>
+      </c>
+      <c r="B324">
+        <v>3</v>
+      </c>
+      <c r="C324">
         <v>4</v>
       </c>
-      <c r="C321">
-        <v>1</v>
-      </c>
-      <c r="D321">
-        <v>2</v>
-      </c>
-      <c r="E321">
-        <v>3</v>
-      </c>
-      <c r="F321">
-        <v>0</v>
-      </c>
-      <c r="G321">
-        <v>3</v>
-      </c>
-      <c r="H321">
-        <v>1</v>
-      </c>
-      <c r="I321">
-        <v>0</v>
-      </c>
-      <c r="J321">
-        <v>1</v>
-      </c>
-      <c r="K321">
-        <v>1</v>
-      </c>
-      <c r="L321">
-        <v>0</v>
-      </c>
-      <c r="M321">
-        <v>2</v>
-      </c>
-      <c r="N321">
-        <v>1</v>
-      </c>
-      <c r="O321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A322">
-        <v>1</v>
-      </c>
-      <c r="B322">
-        <v>2</v>
-      </c>
-      <c r="C322">
-        <v>2</v>
-      </c>
-      <c r="D322">
-        <v>2</v>
-      </c>
-      <c r="E322">
-        <v>2</v>
-      </c>
-      <c r="F322">
-        <v>0</v>
-      </c>
-      <c r="G322">
-        <v>2</v>
-      </c>
-      <c r="H322">
-        <v>3</v>
-      </c>
-      <c r="I322">
-        <v>0</v>
-      </c>
-      <c r="J322">
-        <v>0</v>
-      </c>
-      <c r="K322">
-        <v>1</v>
-      </c>
-      <c r="L322">
-        <v>1</v>
-      </c>
-      <c r="M322">
-        <v>1</v>
-      </c>
-      <c r="N322">
-        <v>2</v>
-      </c>
-      <c r="O322">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="B323">
-        <v>2</v>
-      </c>
-      <c r="C323">
-        <v>5</v>
-      </c>
-      <c r="D323">
-        <v>2</v>
-      </c>
-      <c r="E323">
-        <v>3</v>
-      </c>
-      <c r="F323">
-        <v>0</v>
-      </c>
-      <c r="G323">
-        <v>2</v>
-      </c>
-      <c r="H323">
-        <v>3</v>
-      </c>
-      <c r="I323">
-        <v>0</v>
-      </c>
-      <c r="J323">
-        <v>0</v>
-      </c>
-      <c r="K323">
-        <v>0</v>
-      </c>
-      <c r="L323">
-        <v>0</v>
-      </c>
-      <c r="M323">
-        <v>2</v>
-      </c>
-      <c r="N323">
-        <v>2</v>
-      </c>
-      <c r="O323">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A324">
-        <v>1</v>
-      </c>
-      <c r="B324">
-        <v>3</v>
-      </c>
-      <c r="C324">
-        <v>5</v>
-      </c>
       <c r="D324">
         <v>3</v>
       </c>
@@ -16298,16 +16245,16 @@
         <v>3</v>
       </c>
       <c r="F324">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G324">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H324">
         <v>2</v>
       </c>
       <c r="I324">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J324">
         <v>0</v>
@@ -16319,24 +16266,24 @@
         <v>0</v>
       </c>
       <c r="M324">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N324">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O324">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A325">
         <v>1</v>
       </c>
       <c r="B325">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C325">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D325">
         <v>3</v>
@@ -16348,34 +16295,34 @@
         <v>1</v>
       </c>
       <c r="G325">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H325">
         <v>2</v>
       </c>
       <c r="I325">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J325">
         <v>0</v>
       </c>
       <c r="K325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N325">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O325">
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A326">
         <v>1</v>
       </c>
@@ -16383,22 +16330,22 @@
         <v>2</v>
       </c>
       <c r="C326">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E326">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F326">
         <v>0</v>
       </c>
       <c r="G326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326">
         <v>1</v>
@@ -16413,30 +16360,30 @@
         <v>1</v>
       </c>
       <c r="M326">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N326">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O326">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A327">
         <v>1</v>
       </c>
       <c r="B327">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C327">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D327">
         <v>3</v>
       </c>
       <c r="E327">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F327">
         <v>0</v>
@@ -16445,79 +16392,79 @@
         <v>2</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J327">
         <v>0</v>
       </c>
       <c r="K327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L327">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N327">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O327">
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.4">
       <c r="A328">
         <v>1</v>
       </c>
       <c r="B328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C328">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D328">
         <v>2</v>
       </c>
       <c r="E328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G328">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J328">
         <v>0</v>
       </c>
       <c r="K328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L328">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N328">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O328">
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A329">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A329" s="1">
         <v>1</v>
       </c>
       <c r="B329">
@@ -16530,16 +16477,16 @@
         <v>3</v>
       </c>
       <c r="E329">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F329">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G329">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I329">
         <v>2</v>
@@ -16554,7 +16501,7 @@
         <v>0</v>
       </c>
       <c r="M329">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N329">
         <v>2</v>
@@ -16563,183 +16510,183 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A330">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A330" s="1">
         <v>1</v>
       </c>
       <c r="B330">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C330">
+        <v>2</v>
+      </c>
+      <c r="D330">
+        <v>2</v>
+      </c>
+      <c r="E330">
+        <v>3</v>
+      </c>
+      <c r="F330">
+        <v>0</v>
+      </c>
+      <c r="G330">
+        <v>2</v>
+      </c>
+      <c r="H330">
+        <v>2</v>
+      </c>
+      <c r="I330">
+        <v>1</v>
+      </c>
+      <c r="J330">
+        <v>0</v>
+      </c>
+      <c r="K330">
+        <v>1</v>
+      </c>
+      <c r="L330">
+        <v>1</v>
+      </c>
+      <c r="M330">
+        <v>2</v>
+      </c>
+      <c r="N330">
+        <v>2</v>
+      </c>
+      <c r="O330">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A331" s="1">
+        <v>1</v>
+      </c>
+      <c r="B331">
+        <v>3</v>
+      </c>
+      <c r="C331">
+        <v>2</v>
+      </c>
+      <c r="D331">
+        <v>3</v>
+      </c>
+      <c r="E331">
+        <v>3</v>
+      </c>
+      <c r="F331">
+        <v>1</v>
+      </c>
+      <c r="G331">
+        <v>2</v>
+      </c>
+      <c r="H331">
+        <v>2</v>
+      </c>
+      <c r="I331">
+        <v>3</v>
+      </c>
+      <c r="J331">
+        <v>0</v>
+      </c>
+      <c r="K331">
+        <v>1</v>
+      </c>
+      <c r="L331">
+        <v>1</v>
+      </c>
+      <c r="M331">
+        <v>2</v>
+      </c>
+      <c r="N331">
+        <v>2</v>
+      </c>
+      <c r="O331">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A332" s="1">
+        <v>1</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>1</v>
+      </c>
+      <c r="D332">
+        <v>2</v>
+      </c>
+      <c r="E332">
+        <v>3</v>
+      </c>
+      <c r="F332">
+        <v>0</v>
+      </c>
+      <c r="G332">
+        <v>2</v>
+      </c>
+      <c r="H332">
+        <v>2</v>
+      </c>
+      <c r="I332">
+        <v>0</v>
+      </c>
+      <c r="J332">
+        <v>0</v>
+      </c>
+      <c r="K332">
+        <v>1</v>
+      </c>
+      <c r="L332">
+        <v>1</v>
+      </c>
+      <c r="M332">
+        <v>2</v>
+      </c>
+      <c r="N332">
+        <v>1</v>
+      </c>
+      <c r="O332">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A333" s="1">
+        <v>1</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
         <v>5</v>
       </c>
-      <c r="D330">
-        <v>3</v>
-      </c>
-      <c r="E330">
-        <v>3</v>
-      </c>
-      <c r="F330">
-        <v>1</v>
-      </c>
-      <c r="G330">
-        <v>2</v>
-      </c>
-      <c r="H330">
-        <v>2</v>
-      </c>
-      <c r="I330">
-        <v>3</v>
-      </c>
-      <c r="J330">
-        <v>0</v>
-      </c>
-      <c r="K330">
-        <v>0</v>
-      </c>
-      <c r="L330">
-        <v>0</v>
-      </c>
-      <c r="M330">
-        <v>1</v>
-      </c>
-      <c r="N330">
-        <v>2</v>
-      </c>
-      <c r="O330">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A331">
-        <v>1</v>
-      </c>
-      <c r="B331">
-        <v>1</v>
-      </c>
-      <c r="C331">
-        <v>2</v>
-      </c>
-      <c r="D331">
-        <v>2</v>
-      </c>
-      <c r="E331">
-        <v>3</v>
-      </c>
-      <c r="F331">
-        <v>1</v>
-      </c>
-      <c r="G331">
-        <v>2</v>
-      </c>
-      <c r="H331">
-        <v>1</v>
-      </c>
-      <c r="I331">
-        <v>0</v>
-      </c>
-      <c r="J331">
-        <v>0</v>
-      </c>
-      <c r="K331">
-        <v>1</v>
-      </c>
-      <c r="L331">
-        <v>1</v>
-      </c>
-      <c r="M331">
-        <v>1</v>
-      </c>
-      <c r="N331">
-        <v>2</v>
-      </c>
-      <c r="O331">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A332">
-        <v>1</v>
-      </c>
-      <c r="B332">
-        <v>3</v>
-      </c>
-      <c r="C332">
-        <v>5</v>
-      </c>
-      <c r="D332">
-        <v>3</v>
-      </c>
-      <c r="E332">
-        <v>3</v>
-      </c>
-      <c r="F332">
-        <v>1</v>
-      </c>
-      <c r="G332">
-        <v>2</v>
-      </c>
-      <c r="H332">
-        <v>2</v>
-      </c>
-      <c r="I332">
-        <v>2</v>
-      </c>
-      <c r="J332">
-        <v>0</v>
-      </c>
-      <c r="K332">
-        <v>0</v>
-      </c>
-      <c r="L332">
-        <v>0</v>
-      </c>
-      <c r="M332">
-        <v>2</v>
-      </c>
-      <c r="N332">
-        <v>2</v>
-      </c>
-      <c r="O332">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A333">
-        <v>1</v>
-      </c>
-      <c r="B333">
-        <v>2</v>
-      </c>
-      <c r="C333">
-        <v>2</v>
-      </c>
       <c r="D333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E333">
         <v>3</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I333">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J333">
         <v>0</v>
       </c>
       <c r="K333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L333">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M333">
         <v>2</v>
@@ -16751,18 +16698,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A334">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A334" s="1">
         <v>1</v>
       </c>
       <c r="B334">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C334">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D334">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E334">
         <v>3</v>
@@ -16777,30 +16724,30 @@
         <v>2</v>
       </c>
       <c r="I334">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J334">
         <v>0</v>
       </c>
       <c r="K334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L334">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M334">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N334">
         <v>2</v>
       </c>
       <c r="O334">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A335">
-        <v>1</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A335" s="1">
+        <v>0</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -16812,7 +16759,7 @@
         <v>2</v>
       </c>
       <c r="E335">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F335">
         <v>0</v>
@@ -16821,10 +16768,10 @@
         <v>2</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J335">
         <v>0</v>
@@ -16836,21 +16783,21 @@
         <v>1</v>
       </c>
       <c r="M335">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N335">
         <v>1</v>
       </c>
       <c r="O335">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A336">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A336" s="1">
+        <v>0</v>
       </c>
       <c r="B336">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C336">
         <v>5</v>
@@ -16868,10 +16815,10 @@
         <v>3</v>
       </c>
       <c r="H336">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I336">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J336">
         <v>0</v>
@@ -16883,24 +16830,24 @@
         <v>0</v>
       </c>
       <c r="M336">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N336">
         <v>2</v>
       </c>
       <c r="O336">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A337">
-        <v>1</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A337" s="1">
+        <v>0</v>
       </c>
       <c r="B337">
         <v>2</v>
       </c>
       <c r="C337">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D337">
         <v>2</v>
@@ -16912,7 +16859,7 @@
         <v>1</v>
       </c>
       <c r="G337">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H337">
         <v>2</v>
@@ -16930,7 +16877,7 @@
         <v>0</v>
       </c>
       <c r="M337">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N337">
         <v>2</v>
@@ -16939,33 +16886,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A338">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A338" s="1">
         <v>0</v>
       </c>
       <c r="B338">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C338">
         <v>2</v>
       </c>
       <c r="D338">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E338">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338">
         <v>2</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J338">
         <v>0</v>
@@ -16977,36 +16924,36 @@
         <v>1</v>
       </c>
       <c r="M338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N338">
         <v>2</v>
       </c>
       <c r="O338">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A339">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A339" s="1">
         <v>0</v>
       </c>
       <c r="B339">
         <v>1</v>
       </c>
       <c r="C339">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D339">
         <v>2</v>
       </c>
       <c r="E339">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F339">
         <v>1</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H339">
         <v>1</v>
@@ -17024,7 +16971,7 @@
         <v>0</v>
       </c>
       <c r="M339">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N339">
         <v>1</v>
@@ -17033,15 +16980,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A340">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A340" s="1">
         <v>0</v>
       </c>
       <c r="B340">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C340">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D340">
         <v>3</v>
@@ -17059,54 +17006,54 @@
         <v>2</v>
       </c>
       <c r="I340">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J340">
         <v>0</v>
       </c>
       <c r="K340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N340">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O340">
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A341">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A341" s="1">
         <v>0</v>
       </c>
       <c r="B341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C341">
         <v>1</v>
       </c>
       <c r="D341">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E341">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G341">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H341">
         <v>2</v>
       </c>
       <c r="I341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J341">
         <v>0</v>
@@ -17115,7 +17062,7 @@
         <v>1</v>
       </c>
       <c r="L341">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M341">
         <v>1</v>
@@ -17127,18 +17074,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A342">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A342" s="1">
         <v>0</v>
       </c>
       <c r="B342">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C342">
         <v>5</v>
       </c>
       <c r="D342">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E342">
         <v>3</v>
@@ -17150,10 +17097,10 @@
         <v>3</v>
       </c>
       <c r="H342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I342">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J342">
         <v>0</v>
@@ -17165,74 +17112,74 @@
         <v>0</v>
       </c>
       <c r="M342">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N342">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O342">
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A343">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A343" s="1">
         <v>0</v>
       </c>
       <c r="B343">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C343">
+        <v>2</v>
+      </c>
+      <c r="D343">
+        <v>2</v>
+      </c>
+      <c r="E343">
+        <v>3</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>2</v>
+      </c>
+      <c r="H343">
+        <v>1</v>
+      </c>
+      <c r="I343">
+        <v>0</v>
+      </c>
+      <c r="J343">
+        <v>0</v>
+      </c>
+      <c r="K343">
+        <v>1</v>
+      </c>
+      <c r="L343">
+        <v>0</v>
+      </c>
+      <c r="M343">
+        <v>2</v>
+      </c>
+      <c r="N343">
+        <v>2</v>
+      </c>
+      <c r="O343">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A344" s="1">
+        <v>0</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
         <v>5</v>
       </c>
-      <c r="D343">
-        <v>3</v>
-      </c>
-      <c r="E343">
-        <v>3</v>
-      </c>
-      <c r="F343">
-        <v>1</v>
-      </c>
-      <c r="G343">
-        <v>2</v>
-      </c>
-      <c r="H343">
-        <v>2</v>
-      </c>
-      <c r="I343">
-        <v>1</v>
-      </c>
-      <c r="J343">
-        <v>0</v>
-      </c>
-      <c r="K343">
-        <v>0</v>
-      </c>
-      <c r="L343">
-        <v>0</v>
-      </c>
-      <c r="M343">
-        <v>1</v>
-      </c>
-      <c r="N343">
-        <v>1</v>
-      </c>
-      <c r="O343">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A344">
-        <v>0</v>
-      </c>
-      <c r="B344">
-        <v>3</v>
-      </c>
-      <c r="C344">
-        <v>1</v>
-      </c>
       <c r="D344">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E344">
         <v>3</v>
@@ -17247,19 +17194,19 @@
         <v>2</v>
       </c>
       <c r="I344">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J344">
         <v>0</v>
       </c>
       <c r="K344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L344">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M344">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N344">
         <v>1</v>
@@ -17268,33 +17215,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A345">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A345" s="1">
         <v>0</v>
       </c>
       <c r="B345">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C345">
         <v>5</v>
       </c>
       <c r="D345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E345">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F345">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G345">
         <v>3</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J345">
         <v>0</v>
@@ -17315,18 +17262,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A346">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A346" s="1">
         <v>0</v>
       </c>
       <c r="B346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C346">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E346">
         <v>3</v>
@@ -17335,13 +17282,13 @@
         <v>1</v>
       </c>
       <c r="G346">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H346">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I346">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J346">
         <v>0</v>
@@ -17353,957 +17300,957 @@
         <v>0</v>
       </c>
       <c r="M346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N346">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O346">
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A347">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A347" s="1">
         <v>0</v>
       </c>
       <c r="B347">
         <v>2</v>
       </c>
       <c r="C347">
+        <v>1</v>
+      </c>
+      <c r="D347">
+        <v>2</v>
+      </c>
+      <c r="E347">
+        <v>2</v>
+      </c>
+      <c r="F347">
+        <v>0</v>
+      </c>
+      <c r="G347">
+        <v>3</v>
+      </c>
+      <c r="H347">
+        <v>2</v>
+      </c>
+      <c r="I347">
+        <v>1</v>
+      </c>
+      <c r="J347">
+        <v>0</v>
+      </c>
+      <c r="K347">
+        <v>1</v>
+      </c>
+      <c r="L347">
+        <v>1</v>
+      </c>
+      <c r="M347">
+        <v>1</v>
+      </c>
+      <c r="N347">
+        <v>1</v>
+      </c>
+      <c r="O347">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A348" s="1">
+        <v>0</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>1</v>
+      </c>
+      <c r="D348">
+        <v>2</v>
+      </c>
+      <c r="E348">
+        <v>2</v>
+      </c>
+      <c r="F348">
+        <v>0</v>
+      </c>
+      <c r="G348">
+        <v>2</v>
+      </c>
+      <c r="H348">
+        <v>2</v>
+      </c>
+      <c r="I348">
+        <v>1</v>
+      </c>
+      <c r="J348">
+        <v>0</v>
+      </c>
+      <c r="K348">
+        <v>1</v>
+      </c>
+      <c r="L348">
+        <v>1</v>
+      </c>
+      <c r="M348">
+        <v>1</v>
+      </c>
+      <c r="N348">
+        <v>1</v>
+      </c>
+      <c r="O348">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A349" s="1">
+        <v>0</v>
+      </c>
+      <c r="B349">
+        <v>1</v>
+      </c>
+      <c r="C349">
+        <v>1</v>
+      </c>
+      <c r="D349">
+        <v>2</v>
+      </c>
+      <c r="E349">
+        <v>2</v>
+      </c>
+      <c r="F349">
+        <v>0</v>
+      </c>
+      <c r="G349">
+        <v>2</v>
+      </c>
+      <c r="H349">
+        <v>1</v>
+      </c>
+      <c r="I349">
+        <v>0</v>
+      </c>
+      <c r="J349">
+        <v>0</v>
+      </c>
+      <c r="K349">
+        <v>1</v>
+      </c>
+      <c r="L349">
+        <v>1</v>
+      </c>
+      <c r="M349">
+        <v>1</v>
+      </c>
+      <c r="N349">
+        <v>1</v>
+      </c>
+      <c r="O349">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A350" s="1">
+        <v>1</v>
+      </c>
+      <c r="B350">
+        <v>3</v>
+      </c>
+      <c r="C350">
+        <v>1</v>
+      </c>
+      <c r="D350">
+        <v>2</v>
+      </c>
+      <c r="E350">
+        <v>3</v>
+      </c>
+      <c r="F350">
+        <v>1</v>
+      </c>
+      <c r="G350">
+        <v>3</v>
+      </c>
+      <c r="H350">
+        <v>3</v>
+      </c>
+      <c r="I350">
+        <v>1</v>
+      </c>
+      <c r="J350">
+        <v>0</v>
+      </c>
+      <c r="K350">
+        <v>1</v>
+      </c>
+      <c r="L350">
+        <v>1</v>
+      </c>
+      <c r="M350">
+        <v>1</v>
+      </c>
+      <c r="N350">
+        <v>1</v>
+      </c>
+      <c r="O350">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A351" s="1">
+        <v>0</v>
+      </c>
+      <c r="B351">
+        <v>1</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351">
+        <v>2</v>
+      </c>
+      <c r="E351">
+        <v>3</v>
+      </c>
+      <c r="F351">
+        <v>1</v>
+      </c>
+      <c r="G351">
+        <v>2</v>
+      </c>
+      <c r="H351">
+        <v>1</v>
+      </c>
+      <c r="I351">
+        <v>0</v>
+      </c>
+      <c r="J351">
+        <v>0</v>
+      </c>
+      <c r="K351">
+        <v>1</v>
+      </c>
+      <c r="L351">
+        <v>0</v>
+      </c>
+      <c r="M351">
+        <v>1</v>
+      </c>
+      <c r="N351">
+        <v>1</v>
+      </c>
+      <c r="O351">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A352" s="1">
+        <v>0</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352">
+        <v>2</v>
+      </c>
+      <c r="E352">
+        <v>3</v>
+      </c>
+      <c r="F352">
+        <v>1</v>
+      </c>
+      <c r="G352">
+        <v>2</v>
+      </c>
+      <c r="H352">
+        <v>1</v>
+      </c>
+      <c r="I352">
+        <v>0</v>
+      </c>
+      <c r="J352">
+        <v>0</v>
+      </c>
+      <c r="K352">
+        <v>1</v>
+      </c>
+      <c r="L352">
+        <v>1</v>
+      </c>
+      <c r="M352">
+        <v>1</v>
+      </c>
+      <c r="N352">
+        <v>1</v>
+      </c>
+      <c r="O352">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A353" s="1">
+        <v>0</v>
+      </c>
+      <c r="B353">
+        <v>1</v>
+      </c>
+      <c r="C353">
+        <v>1</v>
+      </c>
+      <c r="D353">
+        <v>2</v>
+      </c>
+      <c r="E353">
+        <v>2</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353">
+        <v>2</v>
+      </c>
+      <c r="H353">
+        <v>1</v>
+      </c>
+      <c r="I353">
+        <v>0</v>
+      </c>
+      <c r="J353">
+        <v>0</v>
+      </c>
+      <c r="K353">
+        <v>1</v>
+      </c>
+      <c r="L353">
+        <v>1</v>
+      </c>
+      <c r="M353">
+        <v>1</v>
+      </c>
+      <c r="N353">
+        <v>1</v>
+      </c>
+      <c r="O353">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A354" s="1">
+        <v>0</v>
+      </c>
+      <c r="B354">
+        <v>2</v>
+      </c>
+      <c r="C354">
         <v>5</v>
       </c>
-      <c r="D347">
-        <v>2</v>
-      </c>
-      <c r="E347">
-        <v>3</v>
-      </c>
-      <c r="F347">
-        <v>1</v>
-      </c>
-      <c r="G347">
-        <v>2</v>
-      </c>
-      <c r="H347">
-        <v>2</v>
-      </c>
-      <c r="I347">
-        <v>0</v>
-      </c>
-      <c r="J347">
-        <v>0</v>
-      </c>
-      <c r="K347">
-        <v>0</v>
-      </c>
-      <c r="L347">
-        <v>0</v>
-      </c>
-      <c r="M347">
-        <v>0</v>
-      </c>
-      <c r="N347">
-        <v>1</v>
-      </c>
-      <c r="O347">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A348">
-        <v>0</v>
-      </c>
-      <c r="B348">
-        <v>1</v>
-      </c>
-      <c r="C348">
+      <c r="D354">
+        <v>2</v>
+      </c>
+      <c r="E354">
+        <v>1</v>
+      </c>
+      <c r="F354">
+        <v>0</v>
+      </c>
+      <c r="G354">
+        <v>2</v>
+      </c>
+      <c r="H354">
+        <v>2</v>
+      </c>
+      <c r="I354">
+        <v>0</v>
+      </c>
+      <c r="J354">
+        <v>0</v>
+      </c>
+      <c r="K354">
+        <v>0</v>
+      </c>
+      <c r="L354">
+        <v>0</v>
+      </c>
+      <c r="M354">
+        <v>1</v>
+      </c>
+      <c r="N354">
+        <v>1</v>
+      </c>
+      <c r="O354">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A355" s="1">
+        <v>0</v>
+      </c>
+      <c r="B355">
+        <v>1</v>
+      </c>
+      <c r="C355">
+        <v>2</v>
+      </c>
+      <c r="D355">
+        <v>2</v>
+      </c>
+      <c r="E355">
+        <v>3</v>
+      </c>
+      <c r="F355">
+        <v>1</v>
+      </c>
+      <c r="G355">
+        <v>2</v>
+      </c>
+      <c r="H355">
+        <v>2</v>
+      </c>
+      <c r="I355">
+        <v>0</v>
+      </c>
+      <c r="J355">
+        <v>0</v>
+      </c>
+      <c r="K355">
+        <v>1</v>
+      </c>
+      <c r="L355">
+        <v>0</v>
+      </c>
+      <c r="M355">
+        <v>2</v>
+      </c>
+      <c r="N355">
+        <v>2</v>
+      </c>
+      <c r="O355">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A356" s="1">
+        <v>0</v>
+      </c>
+      <c r="B356">
+        <v>1</v>
+      </c>
+      <c r="C356">
+        <v>1</v>
+      </c>
+      <c r="D356">
+        <v>2</v>
+      </c>
+      <c r="E356">
+        <v>2</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356">
+        <v>2</v>
+      </c>
+      <c r="H356">
+        <v>1</v>
+      </c>
+      <c r="I356">
+        <v>0</v>
+      </c>
+      <c r="J356">
+        <v>0</v>
+      </c>
+      <c r="K356">
+        <v>1</v>
+      </c>
+      <c r="L356">
+        <v>1</v>
+      </c>
+      <c r="M356">
+        <v>2</v>
+      </c>
+      <c r="N356">
+        <v>1</v>
+      </c>
+      <c r="O356">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A357" s="1">
+        <v>0</v>
+      </c>
+      <c r="B357">
+        <v>1</v>
+      </c>
+      <c r="C357">
+        <v>1</v>
+      </c>
+      <c r="D357">
+        <v>2</v>
+      </c>
+      <c r="E357">
+        <v>3</v>
+      </c>
+      <c r="F357">
+        <v>1</v>
+      </c>
+      <c r="G357">
+        <v>2</v>
+      </c>
+      <c r="H357">
+        <v>1</v>
+      </c>
+      <c r="I357">
+        <v>0</v>
+      </c>
+      <c r="J357">
+        <v>0</v>
+      </c>
+      <c r="K357">
+        <v>1</v>
+      </c>
+      <c r="L357">
+        <v>1</v>
+      </c>
+      <c r="M357">
+        <v>2</v>
+      </c>
+      <c r="N357">
+        <v>1</v>
+      </c>
+      <c r="O357">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A358" s="1">
+        <v>0</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>2</v>
+      </c>
+      <c r="D358">
+        <v>2</v>
+      </c>
+      <c r="E358">
+        <v>3</v>
+      </c>
+      <c r="F358">
+        <v>1</v>
+      </c>
+      <c r="G358">
+        <v>3</v>
+      </c>
+      <c r="H358">
+        <v>1</v>
+      </c>
+      <c r="I358">
+        <v>0</v>
+      </c>
+      <c r="J358">
+        <v>0</v>
+      </c>
+      <c r="K358">
+        <v>1</v>
+      </c>
+      <c r="L358">
+        <v>0</v>
+      </c>
+      <c r="M358">
+        <v>1</v>
+      </c>
+      <c r="N358">
+        <v>1</v>
+      </c>
+      <c r="O358">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A359" s="1">
+        <v>0</v>
+      </c>
+      <c r="B359">
+        <v>1</v>
+      </c>
+      <c r="C359">
+        <v>2</v>
+      </c>
+      <c r="D359">
+        <v>2</v>
+      </c>
+      <c r="E359">
+        <v>3</v>
+      </c>
+      <c r="F359">
+        <v>1</v>
+      </c>
+      <c r="G359">
+        <v>2</v>
+      </c>
+      <c r="H359">
+        <v>1</v>
+      </c>
+      <c r="I359">
+        <v>0</v>
+      </c>
+      <c r="J359">
+        <v>0</v>
+      </c>
+      <c r="K359">
+        <v>1</v>
+      </c>
+      <c r="L359">
+        <v>1</v>
+      </c>
+      <c r="M359">
+        <v>1</v>
+      </c>
+      <c r="N359">
+        <v>2</v>
+      </c>
+      <c r="O359">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A360" s="1">
+        <v>0</v>
+      </c>
+      <c r="B360">
+        <v>2</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360">
+        <v>2</v>
+      </c>
+      <c r="E360">
+        <v>1</v>
+      </c>
+      <c r="F360">
+        <v>0</v>
+      </c>
+      <c r="G360">
+        <v>2</v>
+      </c>
+      <c r="H360">
+        <v>2</v>
+      </c>
+      <c r="I360">
+        <v>1</v>
+      </c>
+      <c r="J360">
+        <v>0</v>
+      </c>
+      <c r="K360">
+        <v>1</v>
+      </c>
+      <c r="L360">
+        <v>1</v>
+      </c>
+      <c r="M360">
+        <v>2</v>
+      </c>
+      <c r="N360">
+        <v>1</v>
+      </c>
+      <c r="O360">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A361" s="1">
+        <v>0</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361">
+        <v>2</v>
+      </c>
+      <c r="E361">
+        <v>3</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361">
+        <v>2</v>
+      </c>
+      <c r="H361">
+        <v>1</v>
+      </c>
+      <c r="I361">
+        <v>0</v>
+      </c>
+      <c r="J361">
+        <v>0</v>
+      </c>
+      <c r="K361">
+        <v>1</v>
+      </c>
+      <c r="L361">
+        <v>1</v>
+      </c>
+      <c r="M361">
+        <v>2</v>
+      </c>
+      <c r="N361">
+        <v>1</v>
+      </c>
+      <c r="O361">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A362" s="1">
+        <v>0</v>
+      </c>
+      <c r="B362">
+        <v>1</v>
+      </c>
+      <c r="C362">
+        <v>2</v>
+      </c>
+      <c r="D362">
+        <v>2</v>
+      </c>
+      <c r="E362">
+        <v>3</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362">
+        <v>2</v>
+      </c>
+      <c r="H362">
+        <v>1</v>
+      </c>
+      <c r="I362">
+        <v>0</v>
+      </c>
+      <c r="J362">
+        <v>0</v>
+      </c>
+      <c r="K362">
+        <v>1</v>
+      </c>
+      <c r="L362">
+        <v>1</v>
+      </c>
+      <c r="M362">
+        <v>1</v>
+      </c>
+      <c r="N362">
+        <v>2</v>
+      </c>
+      <c r="O362">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A363" s="1">
+        <v>0</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>1</v>
+      </c>
+      <c r="D363">
+        <v>2</v>
+      </c>
+      <c r="E363">
+        <v>3</v>
+      </c>
+      <c r="F363">
+        <v>1</v>
+      </c>
+      <c r="G363">
+        <v>3</v>
+      </c>
+      <c r="H363">
+        <v>1</v>
+      </c>
+      <c r="I363">
+        <v>1</v>
+      </c>
+      <c r="J363">
+        <v>0</v>
+      </c>
+      <c r="K363">
+        <v>1</v>
+      </c>
+      <c r="L363">
+        <v>1</v>
+      </c>
+      <c r="M363">
+        <v>1</v>
+      </c>
+      <c r="N363">
+        <v>1</v>
+      </c>
+      <c r="O363">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A364" s="1">
+        <v>1</v>
+      </c>
+      <c r="B364">
+        <v>3</v>
+      </c>
+      <c r="C364">
+        <v>1</v>
+      </c>
+      <c r="D364">
+        <v>3</v>
+      </c>
+      <c r="E364">
+        <v>3</v>
+      </c>
+      <c r="F364">
+        <v>1</v>
+      </c>
+      <c r="G364">
+        <v>2</v>
+      </c>
+      <c r="H364">
+        <v>2</v>
+      </c>
+      <c r="I364">
+        <v>3</v>
+      </c>
+      <c r="J364">
+        <v>0</v>
+      </c>
+      <c r="K364">
+        <v>1</v>
+      </c>
+      <c r="L364">
+        <v>1</v>
+      </c>
+      <c r="M364">
+        <v>1</v>
+      </c>
+      <c r="N364">
+        <v>1</v>
+      </c>
+      <c r="O364">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A365" s="1">
+        <v>1</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365">
+        <v>3</v>
+      </c>
+      <c r="D365">
+        <v>3</v>
+      </c>
+      <c r="E365">
+        <v>2</v>
+      </c>
+      <c r="F365">
+        <v>0</v>
+      </c>
+      <c r="G365">
+        <v>3</v>
+      </c>
+      <c r="H365">
+        <v>1</v>
+      </c>
+      <c r="I365">
+        <v>1</v>
+      </c>
+      <c r="J365">
+        <v>0</v>
+      </c>
+      <c r="K365">
+        <v>1</v>
+      </c>
+      <c r="L365">
+        <v>1</v>
+      </c>
+      <c r="M365">
+        <v>3</v>
+      </c>
+      <c r="N365">
+        <v>2</v>
+      </c>
+      <c r="O365">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A366" s="1">
+        <v>1</v>
+      </c>
+      <c r="B366">
+        <v>4</v>
+      </c>
+      <c r="C366">
         <v>5</v>
       </c>
-      <c r="D348">
-        <v>2</v>
-      </c>
-      <c r="E348">
-        <v>2</v>
-      </c>
-      <c r="F348">
-        <v>0</v>
-      </c>
-      <c r="G348">
-        <v>3</v>
-      </c>
-      <c r="H348">
-        <v>1</v>
-      </c>
-      <c r="I348">
-        <v>0</v>
-      </c>
-      <c r="J348">
-        <v>0</v>
-      </c>
-      <c r="K348">
-        <v>0</v>
-      </c>
-      <c r="L348">
-        <v>0</v>
-      </c>
-      <c r="M348">
-        <v>2</v>
-      </c>
-      <c r="N348">
-        <v>2</v>
-      </c>
-      <c r="O348">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A349">
-        <v>0</v>
-      </c>
-      <c r="B349">
-        <v>2</v>
-      </c>
-      <c r="C349">
-        <v>1</v>
-      </c>
-      <c r="D349">
-        <v>3</v>
-      </c>
-      <c r="E349">
-        <v>3</v>
-      </c>
-      <c r="F349">
-        <v>1</v>
-      </c>
-      <c r="G349">
-        <v>3</v>
-      </c>
-      <c r="H349">
-        <v>2</v>
-      </c>
-      <c r="I349">
-        <v>1</v>
-      </c>
-      <c r="J349">
-        <v>0</v>
-      </c>
-      <c r="K349">
-        <v>1</v>
-      </c>
-      <c r="L349">
-        <v>0</v>
-      </c>
-      <c r="M349">
-        <v>1</v>
-      </c>
-      <c r="N349">
-        <v>1</v>
-      </c>
-      <c r="O349">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A350">
-        <v>0</v>
-      </c>
-      <c r="B350">
-        <v>2</v>
-      </c>
-      <c r="C350">
-        <v>1</v>
-      </c>
-      <c r="D350">
-        <v>2</v>
-      </c>
-      <c r="E350">
-        <v>2</v>
-      </c>
-      <c r="F350">
-        <v>0</v>
-      </c>
-      <c r="G350">
-        <v>3</v>
-      </c>
-      <c r="H350">
-        <v>2</v>
-      </c>
-      <c r="I350">
-        <v>1</v>
-      </c>
-      <c r="J350">
-        <v>0</v>
-      </c>
-      <c r="K350">
-        <v>1</v>
-      </c>
-      <c r="L350">
-        <v>1</v>
-      </c>
-      <c r="M350">
-        <v>1</v>
-      </c>
-      <c r="N350">
-        <v>1</v>
-      </c>
-      <c r="O350">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A351">
-        <v>0</v>
-      </c>
-      <c r="B351">
-        <v>2</v>
-      </c>
-      <c r="C351">
-        <v>1</v>
-      </c>
-      <c r="D351">
-        <v>2</v>
-      </c>
-      <c r="E351">
-        <v>2</v>
-      </c>
-      <c r="F351">
-        <v>0</v>
-      </c>
-      <c r="G351">
-        <v>2</v>
-      </c>
-      <c r="H351">
-        <v>2</v>
-      </c>
-      <c r="I351">
-        <v>1</v>
-      </c>
-      <c r="J351">
-        <v>0</v>
-      </c>
-      <c r="K351">
-        <v>1</v>
-      </c>
-      <c r="L351">
-        <v>1</v>
-      </c>
-      <c r="M351">
-        <v>1</v>
-      </c>
-      <c r="N351">
-        <v>1</v>
-      </c>
-      <c r="O351">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A352">
-        <v>0</v>
-      </c>
-      <c r="B352">
-        <v>1</v>
-      </c>
-      <c r="C352">
-        <v>1</v>
-      </c>
-      <c r="D352">
-        <v>2</v>
-      </c>
-      <c r="E352">
-        <v>2</v>
-      </c>
-      <c r="F352">
-        <v>0</v>
-      </c>
-      <c r="G352">
-        <v>2</v>
-      </c>
-      <c r="H352">
-        <v>1</v>
-      </c>
-      <c r="I352">
-        <v>0</v>
-      </c>
-      <c r="J352">
-        <v>0</v>
-      </c>
-      <c r="K352">
-        <v>1</v>
-      </c>
-      <c r="L352">
-        <v>1</v>
-      </c>
-      <c r="M352">
-        <v>1</v>
-      </c>
-      <c r="N352">
-        <v>1</v>
-      </c>
-      <c r="O352">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A353">
-        <v>1</v>
-      </c>
-      <c r="B353">
-        <v>3</v>
-      </c>
-      <c r="C353">
-        <v>1</v>
-      </c>
-      <c r="D353">
-        <v>2</v>
-      </c>
-      <c r="E353">
-        <v>3</v>
-      </c>
-      <c r="F353">
-        <v>1</v>
-      </c>
-      <c r="G353">
-        <v>3</v>
-      </c>
-      <c r="H353">
-        <v>3</v>
-      </c>
-      <c r="I353">
-        <v>1</v>
-      </c>
-      <c r="J353">
-        <v>0</v>
-      </c>
-      <c r="K353">
-        <v>1</v>
-      </c>
-      <c r="L353">
-        <v>1</v>
-      </c>
-      <c r="M353">
-        <v>1</v>
-      </c>
-      <c r="N353">
-        <v>1</v>
-      </c>
-      <c r="O353">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A354">
-        <v>0</v>
-      </c>
-      <c r="B354">
-        <v>1</v>
-      </c>
-      <c r="C354">
-        <v>1</v>
-      </c>
-      <c r="D354">
-        <v>2</v>
-      </c>
-      <c r="E354">
-        <v>3</v>
-      </c>
-      <c r="F354">
-        <v>1</v>
-      </c>
-      <c r="G354">
-        <v>2</v>
-      </c>
-      <c r="H354">
-        <v>1</v>
-      </c>
-      <c r="I354">
-        <v>0</v>
-      </c>
-      <c r="J354">
-        <v>0</v>
-      </c>
-      <c r="K354">
-        <v>1</v>
-      </c>
-      <c r="L354">
-        <v>0</v>
-      </c>
-      <c r="M354">
-        <v>1</v>
-      </c>
-      <c r="N354">
-        <v>1</v>
-      </c>
-      <c r="O354">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A355">
-        <v>0</v>
-      </c>
-      <c r="B355">
-        <v>1</v>
-      </c>
-      <c r="C355">
-        <v>1</v>
-      </c>
-      <c r="D355">
-        <v>2</v>
-      </c>
-      <c r="E355">
-        <v>3</v>
-      </c>
-      <c r="F355">
-        <v>1</v>
-      </c>
-      <c r="G355">
-        <v>2</v>
-      </c>
-      <c r="H355">
-        <v>1</v>
-      </c>
-      <c r="I355">
-        <v>0</v>
-      </c>
-      <c r="J355">
-        <v>0</v>
-      </c>
-      <c r="K355">
-        <v>1</v>
-      </c>
-      <c r="L355">
-        <v>1</v>
-      </c>
-      <c r="M355">
-        <v>1</v>
-      </c>
-      <c r="N355">
-        <v>1</v>
-      </c>
-      <c r="O355">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A356">
-        <v>0</v>
-      </c>
-      <c r="B356">
-        <v>1</v>
-      </c>
-      <c r="C356">
-        <v>1</v>
-      </c>
-      <c r="D356">
-        <v>2</v>
-      </c>
-      <c r="E356">
-        <v>2</v>
-      </c>
-      <c r="F356">
-        <v>0</v>
-      </c>
-      <c r="G356">
-        <v>2</v>
-      </c>
-      <c r="H356">
-        <v>1</v>
-      </c>
-      <c r="I356">
-        <v>0</v>
-      </c>
-      <c r="J356">
-        <v>0</v>
-      </c>
-      <c r="K356">
-        <v>1</v>
-      </c>
-      <c r="L356">
-        <v>1</v>
-      </c>
-      <c r="M356">
-        <v>1</v>
-      </c>
-      <c r="N356">
-        <v>1</v>
-      </c>
-      <c r="O356">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A357">
-        <v>0</v>
-      </c>
-      <c r="B357">
-        <v>2</v>
-      </c>
-      <c r="C357">
-        <v>5</v>
-      </c>
-      <c r="D357">
-        <v>2</v>
-      </c>
-      <c r="E357">
-        <v>1</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
-      <c r="G357">
-        <v>2</v>
-      </c>
-      <c r="H357">
-        <v>2</v>
-      </c>
-      <c r="I357">
-        <v>0</v>
-      </c>
-      <c r="J357">
-        <v>0</v>
-      </c>
-      <c r="K357">
-        <v>0</v>
-      </c>
-      <c r="L357">
-        <v>0</v>
-      </c>
-      <c r="M357">
-        <v>1</v>
-      </c>
-      <c r="N357">
-        <v>1</v>
-      </c>
-      <c r="O357">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A358">
-        <v>0</v>
-      </c>
-      <c r="B358">
-        <v>1</v>
-      </c>
-      <c r="C358">
-        <v>2</v>
-      </c>
-      <c r="D358">
-        <v>2</v>
-      </c>
-      <c r="E358">
-        <v>3</v>
-      </c>
-      <c r="F358">
-        <v>1</v>
-      </c>
-      <c r="G358">
-        <v>2</v>
-      </c>
-      <c r="H358">
-        <v>2</v>
-      </c>
-      <c r="I358">
-        <v>0</v>
-      </c>
-      <c r="J358">
-        <v>0</v>
-      </c>
-      <c r="K358">
-        <v>1</v>
-      </c>
-      <c r="L358">
-        <v>0</v>
-      </c>
-      <c r="M358">
-        <v>2</v>
-      </c>
-      <c r="N358">
-        <v>2</v>
-      </c>
-      <c r="O358">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A359">
-        <v>0</v>
-      </c>
-      <c r="B359">
-        <v>1</v>
-      </c>
-      <c r="C359">
-        <v>1</v>
-      </c>
-      <c r="D359">
-        <v>2</v>
-      </c>
-      <c r="E359">
-        <v>2</v>
-      </c>
-      <c r="F359">
-        <v>0</v>
-      </c>
-      <c r="G359">
-        <v>2</v>
-      </c>
-      <c r="H359">
-        <v>1</v>
-      </c>
-      <c r="I359">
-        <v>0</v>
-      </c>
-      <c r="J359">
-        <v>0</v>
-      </c>
-      <c r="K359">
-        <v>1</v>
-      </c>
-      <c r="L359">
-        <v>1</v>
-      </c>
-      <c r="M359">
-        <v>2</v>
-      </c>
-      <c r="N359">
-        <v>1</v>
-      </c>
-      <c r="O359">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A360">
-        <v>0</v>
-      </c>
-      <c r="B360">
-        <v>1</v>
-      </c>
-      <c r="C360">
-        <v>1</v>
-      </c>
-      <c r="D360">
-        <v>2</v>
-      </c>
-      <c r="E360">
-        <v>3</v>
-      </c>
-      <c r="F360">
-        <v>1</v>
-      </c>
-      <c r="G360">
-        <v>2</v>
-      </c>
-      <c r="H360">
-        <v>1</v>
-      </c>
-      <c r="I360">
-        <v>0</v>
-      </c>
-      <c r="J360">
-        <v>0</v>
-      </c>
-      <c r="K360">
-        <v>1</v>
-      </c>
-      <c r="L360">
-        <v>1</v>
-      </c>
-      <c r="M360">
-        <v>2</v>
-      </c>
-      <c r="N360">
-        <v>1</v>
-      </c>
-      <c r="O360">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A361">
-        <v>0</v>
-      </c>
-      <c r="B361">
-        <v>1</v>
-      </c>
-      <c r="C361">
-        <v>1</v>
-      </c>
-      <c r="D361">
-        <v>2</v>
-      </c>
-      <c r="E361">
-        <v>3</v>
-      </c>
-      <c r="F361">
-        <v>1</v>
-      </c>
-      <c r="G361">
-        <v>3</v>
-      </c>
-      <c r="H361">
-        <v>1</v>
-      </c>
-      <c r="I361">
-        <v>0</v>
-      </c>
-      <c r="J361">
-        <v>0</v>
-      </c>
-      <c r="K361">
-        <v>1</v>
-      </c>
-      <c r="L361">
-        <v>0</v>
-      </c>
-      <c r="M361">
-        <v>1</v>
-      </c>
-      <c r="N361">
-        <v>1</v>
-      </c>
-      <c r="O361">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A362">
-        <v>0</v>
-      </c>
-      <c r="B362">
-        <v>1</v>
-      </c>
-      <c r="C362">
-        <v>2</v>
-      </c>
-      <c r="D362">
-        <v>2</v>
-      </c>
-      <c r="E362">
-        <v>3</v>
-      </c>
-      <c r="F362">
-        <v>1</v>
-      </c>
-      <c r="G362">
-        <v>2</v>
-      </c>
-      <c r="H362">
-        <v>1</v>
-      </c>
-      <c r="I362">
-        <v>0</v>
-      </c>
-      <c r="J362">
-        <v>0</v>
-      </c>
-      <c r="K362">
-        <v>1</v>
-      </c>
-      <c r="L362">
-        <v>1</v>
-      </c>
-      <c r="M362">
-        <v>1</v>
-      </c>
-      <c r="N362">
-        <v>2</v>
-      </c>
-      <c r="O362">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A363">
-        <v>0</v>
-      </c>
-      <c r="B363">
-        <v>2</v>
-      </c>
-      <c r="C363">
-        <v>1</v>
-      </c>
-      <c r="D363">
-        <v>2</v>
-      </c>
-      <c r="E363">
-        <v>1</v>
-      </c>
-      <c r="F363">
-        <v>0</v>
-      </c>
-      <c r="G363">
-        <v>2</v>
-      </c>
-      <c r="H363">
-        <v>2</v>
-      </c>
-      <c r="I363">
-        <v>1</v>
-      </c>
-      <c r="J363">
-        <v>0</v>
-      </c>
-      <c r="K363">
-        <v>1</v>
-      </c>
-      <c r="L363">
-        <v>1</v>
-      </c>
-      <c r="M363">
-        <v>2</v>
-      </c>
-      <c r="N363">
-        <v>1</v>
-      </c>
-      <c r="O363">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A364">
-        <v>0</v>
-      </c>
-      <c r="B364">
-        <v>1</v>
-      </c>
-      <c r="C364">
-        <v>1</v>
-      </c>
-      <c r="D364">
-        <v>2</v>
-      </c>
-      <c r="E364">
-        <v>3</v>
-      </c>
-      <c r="F364">
-        <v>1</v>
-      </c>
-      <c r="G364">
-        <v>2</v>
-      </c>
-      <c r="H364">
-        <v>1</v>
-      </c>
-      <c r="I364">
-        <v>0</v>
-      </c>
-      <c r="J364">
-        <v>0</v>
-      </c>
-      <c r="K364">
-        <v>1</v>
-      </c>
-      <c r="L364">
-        <v>1</v>
-      </c>
-      <c r="M364">
-        <v>2</v>
-      </c>
-      <c r="N364">
-        <v>1</v>
-      </c>
-      <c r="O364">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A365">
-        <v>0</v>
-      </c>
-      <c r="B365">
-        <v>1</v>
-      </c>
-      <c r="C365">
-        <v>2</v>
-      </c>
-      <c r="D365">
-        <v>2</v>
-      </c>
-      <c r="E365">
-        <v>3</v>
-      </c>
-      <c r="F365">
-        <v>1</v>
-      </c>
-      <c r="G365">
-        <v>2</v>
-      </c>
-      <c r="H365">
-        <v>1</v>
-      </c>
-      <c r="I365">
-        <v>0</v>
-      </c>
-      <c r="J365">
-        <v>0</v>
-      </c>
-      <c r="K365">
-        <v>1</v>
-      </c>
-      <c r="L365">
-        <v>1</v>
-      </c>
-      <c r="M365">
-        <v>1</v>
-      </c>
-      <c r="N365">
-        <v>2</v>
-      </c>
-      <c r="O365">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A366">
-        <v>0</v>
-      </c>
-      <c r="B366">
-        <v>2</v>
-      </c>
-      <c r="C366">
-        <v>1</v>
-      </c>
       <c r="D366">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H366">
         <v>1</v>
       </c>
       <c r="I366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J366">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L366">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N366">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O366">
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A367">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A367" s="1">
         <v>1</v>
       </c>
       <c r="B367">
@@ -18319,16 +18266,16 @@
         <v>3</v>
       </c>
       <c r="F367">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G367">
         <v>2</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J367">
         <v>0</v>
@@ -18349,8 +18296,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A368">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A368" s="1">
         <v>0</v>
       </c>
       <c r="B368">
@@ -18396,8 +18343,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A369">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A369" s="1">
         <v>0</v>
       </c>
       <c r="B369">
@@ -18443,8 +18390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A370">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A370" s="1">
         <v>0</v>
       </c>
       <c r="B370">
@@ -18490,8 +18437,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A371">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A371" s="1">
         <v>0</v>
       </c>
       <c r="B371">
@@ -18537,8 +18484,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A372">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A372" s="1">
         <v>0</v>
       </c>
       <c r="B372">
@@ -18584,8 +18531,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A373">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A373" s="1">
         <v>0</v>
       </c>
       <c r="B373">
@@ -18631,8 +18578,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A374">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A374" s="1">
         <v>0</v>
       </c>
       <c r="B374">
@@ -18678,8 +18625,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A375">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A375" s="1">
         <v>0</v>
       </c>
       <c r="B375">
@@ -18725,8 +18672,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A376">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A376" s="1">
         <v>0</v>
       </c>
       <c r="B376">
@@ -18772,15 +18719,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A377">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A377" s="1">
         <v>0</v>
       </c>
       <c r="B377">
         <v>1</v>
       </c>
       <c r="C377">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D377">
         <v>2</v>
@@ -18819,8 +18766,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A378">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A378" s="1">
         <v>0</v>
       </c>
       <c r="B378">
@@ -18866,8 +18813,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A379">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A379" s="1">
         <v>0</v>
       </c>
       <c r="B379">
@@ -18913,8 +18860,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A380">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A380" s="1">
         <v>0</v>
       </c>
       <c r="B380">
@@ -18960,8 +18907,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A381">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A381" s="1">
         <v>0</v>
       </c>
       <c r="B381">
@@ -19007,8 +18954,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A382">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A382" s="1">
         <v>0</v>
       </c>
       <c r="B382">
@@ -19054,8 +19001,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A383">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A383" s="1">
         <v>0</v>
       </c>
       <c r="B383">
@@ -19101,8 +19048,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A384">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A384" s="1">
         <v>0</v>
       </c>
       <c r="B384">
@@ -19148,8 +19095,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A385">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A385" s="1">
         <v>0</v>
       </c>
       <c r="B385">
@@ -19195,15 +19142,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A386">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A386" s="1">
         <v>0</v>
       </c>
       <c r="B386">
         <v>1</v>
       </c>
       <c r="C386">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D386">
         <v>2</v>
@@ -19242,8 +19189,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A387">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A387" s="1">
         <v>0</v>
       </c>
       <c r="B387">
@@ -19289,8 +19236,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A388">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A388" s="1">
         <v>0</v>
       </c>
       <c r="B388">
@@ -19336,15 +19283,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A389">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A389" s="1">
         <v>0</v>
       </c>
       <c r="B389">
         <v>1</v>
       </c>
       <c r="C389">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D389">
         <v>1</v>
@@ -19383,8 +19330,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A390">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A390" s="1">
         <v>0</v>
       </c>
       <c r="B390">
@@ -19430,8 +19377,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A391">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A391" s="1">
         <v>0</v>
       </c>
       <c r="B391">
@@ -19477,8 +19424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A392">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A392" s="1">
         <v>0</v>
       </c>
       <c r="B392">
@@ -19524,8 +19471,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A393">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A393" s="1">
         <v>0</v>
       </c>
       <c r="B393">
@@ -19571,8 +19518,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A394">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A394" s="1">
         <v>0</v>
       </c>
       <c r="B394">
@@ -19618,8 +19565,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A395">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A395" s="1">
         <v>0</v>
       </c>
       <c r="B395">
@@ -19663,10 +19610,535 @@
       </c>
       <c r="O395">
         <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A396">
+        <v>0</v>
+      </c>
+      <c r="B396">
+        <v>1</v>
+      </c>
+      <c r="C396">
+        <v>2</v>
+      </c>
+      <c r="D396">
+        <v>2</v>
+      </c>
+      <c r="E396">
+        <v>2</v>
+      </c>
+      <c r="F396">
+        <v>0</v>
+      </c>
+      <c r="G396">
+        <v>2</v>
+      </c>
+      <c r="H396">
+        <v>1</v>
+      </c>
+      <c r="I396">
+        <v>0</v>
+      </c>
+      <c r="J396">
+        <v>0</v>
+      </c>
+      <c r="K396">
+        <v>1</v>
+      </c>
+      <c r="L396">
+        <v>0</v>
+      </c>
+      <c r="M396">
+        <v>1</v>
+      </c>
+      <c r="N396">
+        <v>2</v>
+      </c>
+      <c r="O396">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A397" s="1">
+        <v>1</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397">
+        <v>3</v>
+      </c>
+      <c r="E397">
+        <v>2</v>
+      </c>
+      <c r="F397">
+        <v>0</v>
+      </c>
+      <c r="G397">
+        <v>3</v>
+      </c>
+      <c r="H397">
+        <v>1</v>
+      </c>
+      <c r="I397">
+        <v>1</v>
+      </c>
+      <c r="J397">
+        <v>0</v>
+      </c>
+      <c r="K397">
+        <v>1</v>
+      </c>
+      <c r="L397">
+        <v>1</v>
+      </c>
+      <c r="M397">
+        <v>3</v>
+      </c>
+      <c r="N397">
+        <v>2</v>
+      </c>
+      <c r="O397">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="398" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A398" s="1">
+        <v>1</v>
+      </c>
+      <c r="B398">
+        <v>4</v>
+      </c>
+      <c r="C398">
+        <v>5</v>
+      </c>
+      <c r="D398">
+        <v>3</v>
+      </c>
+      <c r="E398">
+        <v>2</v>
+      </c>
+      <c r="F398">
+        <v>0</v>
+      </c>
+      <c r="G398">
+        <v>2</v>
+      </c>
+      <c r="H398">
+        <v>1</v>
+      </c>
+      <c r="I398">
+        <v>2</v>
+      </c>
+      <c r="J398">
+        <v>1</v>
+      </c>
+      <c r="K398">
+        <v>0</v>
+      </c>
+      <c r="L398">
+        <v>0</v>
+      </c>
+      <c r="M398">
+        <v>2</v>
+      </c>
+      <c r="N398">
+        <v>2</v>
+      </c>
+      <c r="O398">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="399" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A399" s="1">
+        <v>1</v>
+      </c>
+      <c r="B399">
+        <v>3</v>
+      </c>
+      <c r="C399">
+        <v>1</v>
+      </c>
+      <c r="D399">
+        <v>3</v>
+      </c>
+      <c r="E399">
+        <v>3</v>
+      </c>
+      <c r="F399">
+        <v>0</v>
+      </c>
+      <c r="G399">
+        <v>2</v>
+      </c>
+      <c r="H399">
+        <v>1</v>
+      </c>
+      <c r="I399">
+        <v>2</v>
+      </c>
+      <c r="J399">
+        <v>0</v>
+      </c>
+      <c r="K399">
+        <v>1</v>
+      </c>
+      <c r="L399">
+        <v>1</v>
+      </c>
+      <c r="M399">
+        <v>1</v>
+      </c>
+      <c r="N399">
+        <v>1</v>
+      </c>
+      <c r="O399">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="400" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A400" s="1">
+        <v>1</v>
+      </c>
+      <c r="B400">
+        <v>3</v>
+      </c>
+      <c r="C400">
+        <v>5</v>
+      </c>
+      <c r="D400">
+        <v>3</v>
+      </c>
+      <c r="E400">
+        <v>2</v>
+      </c>
+      <c r="F400">
+        <v>0</v>
+      </c>
+      <c r="G400">
+        <v>3</v>
+      </c>
+      <c r="H400">
+        <v>2</v>
+      </c>
+      <c r="I400">
+        <v>2</v>
+      </c>
+      <c r="J400">
+        <v>0</v>
+      </c>
+      <c r="K400">
+        <v>0</v>
+      </c>
+      <c r="L400">
+        <v>1</v>
+      </c>
+      <c r="M400">
+        <v>1</v>
+      </c>
+      <c r="N400">
+        <v>2</v>
+      </c>
+      <c r="O400">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="401" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A401" s="1">
+        <v>1</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>2</v>
+      </c>
+      <c r="D401">
+        <v>2</v>
+      </c>
+      <c r="E401">
+        <v>3</v>
+      </c>
+      <c r="F401">
+        <v>1</v>
+      </c>
+      <c r="G401">
+        <v>3</v>
+      </c>
+      <c r="H401">
+        <v>2</v>
+      </c>
+      <c r="I401">
+        <v>1</v>
+      </c>
+      <c r="J401">
+        <v>0</v>
+      </c>
+      <c r="K401">
+        <v>1</v>
+      </c>
+      <c r="L401">
+        <v>1</v>
+      </c>
+      <c r="M401">
+        <v>2</v>
+      </c>
+      <c r="N401">
+        <v>2</v>
+      </c>
+      <c r="O401">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="402" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A402" s="1">
+        <v>1</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>2</v>
+      </c>
+      <c r="D402">
+        <v>3</v>
+      </c>
+      <c r="E402">
+        <v>3</v>
+      </c>
+      <c r="F402">
+        <v>1</v>
+      </c>
+      <c r="G402">
+        <v>2</v>
+      </c>
+      <c r="H402">
+        <v>2</v>
+      </c>
+      <c r="I402">
+        <v>1</v>
+      </c>
+      <c r="J402">
+        <v>0</v>
+      </c>
+      <c r="K402">
+        <v>1</v>
+      </c>
+      <c r="L402">
+        <v>0</v>
+      </c>
+      <c r="M402">
+        <v>1</v>
+      </c>
+      <c r="N402">
+        <v>1</v>
+      </c>
+      <c r="O402">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A403" s="1">
+        <v>1</v>
+      </c>
+      <c r="B403">
+        <v>2</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403">
+        <v>2</v>
+      </c>
+      <c r="E403">
+        <v>3</v>
+      </c>
+      <c r="F403">
+        <v>1</v>
+      </c>
+      <c r="G403">
+        <v>2</v>
+      </c>
+      <c r="H403">
+        <v>2</v>
+      </c>
+      <c r="I403">
+        <v>1</v>
+      </c>
+      <c r="J403">
+        <v>0</v>
+      </c>
+      <c r="K403">
+        <v>1</v>
+      </c>
+      <c r="L403">
+        <v>1</v>
+      </c>
+      <c r="M403">
+        <v>1</v>
+      </c>
+      <c r="N403">
+        <v>1</v>
+      </c>
+      <c r="O403">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="404" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A404" s="1">
+        <v>1</v>
+      </c>
+      <c r="B404">
+        <v>3</v>
+      </c>
+      <c r="C404">
+        <v>5</v>
+      </c>
+      <c r="D404">
+        <v>3</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+      <c r="F404">
+        <v>0</v>
+      </c>
+      <c r="G404">
+        <v>3</v>
+      </c>
+      <c r="H404">
+        <v>2</v>
+      </c>
+      <c r="I404">
+        <v>3</v>
+      </c>
+      <c r="J404">
+        <v>0</v>
+      </c>
+      <c r="K404">
+        <v>0</v>
+      </c>
+      <c r="L404">
+        <v>0</v>
+      </c>
+      <c r="M404">
+        <v>1</v>
+      </c>
+      <c r="N404">
+        <v>2</v>
+      </c>
+      <c r="O404">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A405" s="1">
+        <v>1</v>
+      </c>
+      <c r="B405">
+        <v>3</v>
+      </c>
+      <c r="C405">
+        <v>5</v>
+      </c>
+      <c r="D405">
+        <v>3</v>
+      </c>
+      <c r="E405">
+        <v>3</v>
+      </c>
+      <c r="F405">
+        <v>1</v>
+      </c>
+      <c r="G405">
+        <v>3</v>
+      </c>
+      <c r="H405">
+        <v>2</v>
+      </c>
+      <c r="I405">
+        <v>3</v>
+      </c>
+      <c r="J405">
+        <v>0</v>
+      </c>
+      <c r="K405">
+        <v>0</v>
+      </c>
+      <c r="L405">
+        <v>0</v>
+      </c>
+      <c r="M405">
+        <v>2</v>
+      </c>
+      <c r="N405">
+        <v>2</v>
+      </c>
+      <c r="O405">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="406" spans="1:15" x14ac:dyDescent="0.4">
+      <c r="A406">
+        <v>1</v>
+      </c>
+      <c r="B406">
+        <v>3</v>
+      </c>
+      <c r="C406">
+        <v>2</v>
+      </c>
+      <c r="D406">
+        <v>3</v>
+      </c>
+      <c r="E406">
+        <v>3</v>
+      </c>
+      <c r="F406">
+        <v>1</v>
+      </c>
+      <c r="G406">
+        <v>1</v>
+      </c>
+      <c r="H406">
+        <v>1</v>
+      </c>
+      <c r="I406">
+        <v>1</v>
+      </c>
+      <c r="J406">
+        <v>0</v>
+      </c>
+      <c r="K406">
+        <v>1</v>
+      </c>
+      <c r="L406">
+        <v>1</v>
+      </c>
+      <c r="M406">
+        <v>1</v>
+      </c>
+      <c r="N406">
+        <v>2</v>
+      </c>
+      <c r="O406">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E406:F406" xr:uid="{D0AA2816-0818-4391-A9A8-970B2072C903}">
+      <formula1>"0,1,2,3"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D406" xr:uid="{33CFC30B-0385-44AE-9525-4C91441F39EE}">
+      <formula1>"1,2,3,4"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/project/dmy/moon.xlsx
+++ b/project/dmy/moon.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\大月亮\Downloads\WPy64-3720\notebooks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repositories\mmhelper\project\dmy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08B35CD-2123-4170-986F-D39CF9FA8E44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A37CCFA-B79E-48DB-B82F-C153F0B7ABA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="13695" windowHeight="8595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="moon" sheetId="1" r:id="rId1"/>
@@ -29,27 +29,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>MBNG</t>
-  </si>
-  <si>
-    <t>Stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">T </t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Infiltration </t>
-  </si>
-  <si>
-    <t>Risk</t>
-  </si>
   <si>
     <t>Label</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -80,6 +59,34 @@
   </si>
   <si>
     <t>Luminal</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stage</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Risk</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>MBNG</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Infiltration</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1039,62 +1046,62 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A267" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A271" sqref="A271:XFD275"/>
+      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="1"/>
+    <col min="1" max="1" width="9.125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>0</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.4">
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1141,7 +1148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -1188,7 +1195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>0</v>
       </c>
@@ -1235,7 +1242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>1</v>
       </c>
@@ -1282,7 +1289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>0</v>
       </c>
@@ -1329,7 +1336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>0</v>
       </c>
@@ -1376,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>0</v>
       </c>
@@ -1423,7 +1430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>0</v>
       </c>
@@ -1470,7 +1477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>0</v>
       </c>
@@ -1517,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>1</v>
       </c>
@@ -1564,7 +1571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>0</v>
       </c>
@@ -1611,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>0</v>
       </c>
@@ -1658,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>0</v>
       </c>
@@ -1705,7 +1712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>0</v>
       </c>
@@ -1752,7 +1759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>0</v>
       </c>
@@ -1799,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -1846,7 +1853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>0</v>
       </c>
@@ -1893,7 +1900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -1940,7 +1947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>0</v>
       </c>
@@ -1987,7 +1994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -2034,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>0</v>
       </c>
@@ -2081,7 +2088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>0</v>
       </c>
@@ -2128,7 +2135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>0</v>
       </c>
@@ -2175,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -2222,7 +2229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>0</v>
       </c>
@@ -2269,7 +2276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2316,7 +2323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -2363,7 +2370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
         <v>0</v>
       </c>
@@ -2410,7 +2417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
         <v>0</v>
       </c>
@@ -2457,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
         <v>0</v>
       </c>
@@ -2504,7 +2511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
         <v>0</v>
       </c>
@@ -2551,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
         <v>0</v>
       </c>
@@ -2598,7 +2605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
         <v>0</v>
       </c>
@@ -2645,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
         <v>0</v>
       </c>
@@ -2692,7 +2699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
         <v>0</v>
       </c>
@@ -2739,7 +2746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
         <v>0</v>
       </c>
@@ -2786,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
         <v>0</v>
       </c>
@@ -2833,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
         <v>0</v>
       </c>
@@ -2880,7 +2887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
         <v>1</v>
       </c>
@@ -2927,7 +2934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
         <v>0</v>
       </c>
@@ -2974,7 +2981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
         <v>0</v>
       </c>
@@ -3021,7 +3028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
         <v>0</v>
       </c>
@@ -3068,7 +3075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
         <v>0</v>
       </c>
@@ -3115,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
         <v>0</v>
       </c>
@@ -3162,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
         <v>1</v>
       </c>
@@ -3209,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
         <v>0</v>
       </c>
@@ -3256,7 +3263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
         <v>0</v>
       </c>
@@ -3303,7 +3310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
         <v>1</v>
       </c>
@@ -3350,7 +3357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" s="1">
         <v>0</v>
       </c>
@@ -3397,7 +3404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" s="1">
         <v>0</v>
       </c>
@@ -3444,7 +3451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" s="1">
         <v>0</v>
       </c>
@@ -3491,7 +3498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" s="1">
         <v>1</v>
       </c>
@@ -3538,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" s="1">
         <v>0</v>
       </c>
@@ -3585,7 +3592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" s="1">
         <v>0</v>
       </c>
@@ -3632,7 +3639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" s="1">
         <v>1</v>
       </c>
@@ -3679,7 +3686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" s="1">
         <v>0</v>
       </c>
@@ -3726,7 +3733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" s="1">
         <v>0</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" s="1">
         <v>0</v>
       </c>
@@ -3820,7 +3827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" s="1">
         <v>0</v>
       </c>
@@ -3867,7 +3874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" s="1">
         <v>0</v>
       </c>
@@ -3914,7 +3921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" s="1">
         <v>0</v>
       </c>
@@ -3961,7 +3968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" s="1">
         <v>0</v>
       </c>
@@ -4008,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" s="1">
         <v>0</v>
       </c>
@@ -4055,7 +4062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" s="1">
         <v>0</v>
       </c>
@@ -4102,7 +4109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" s="1">
         <v>0</v>
       </c>
@@ -4149,7 +4156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" s="1">
         <v>0</v>
       </c>
@@ -4196,7 +4203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" s="1">
         <v>0</v>
       </c>
@@ -4243,7 +4250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" s="1">
         <v>0</v>
       </c>
@@ -4290,7 +4297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" s="1">
         <v>0</v>
       </c>
@@ -4337,7 +4344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" s="1">
         <v>0</v>
       </c>
@@ -4384,7 +4391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" s="1">
         <v>0</v>
       </c>
@@ -4431,7 +4438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" s="1">
         <v>0</v>
       </c>
@@ -4478,7 +4485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" s="1">
         <v>0</v>
       </c>
@@ -4525,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" s="1">
         <v>0</v>
       </c>
@@ -4572,7 +4579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" s="1">
         <v>0</v>
       </c>
@@ -4619,7 +4626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" s="1">
         <v>0</v>
       </c>
@@ -4666,7 +4673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" s="1">
         <v>0</v>
       </c>
@@ -4713,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" s="1">
         <v>0</v>
       </c>
@@ -4760,7 +4767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" s="1">
         <v>0</v>
       </c>
@@ -4807,7 +4814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>0</v>
       </c>
@@ -4854,7 +4861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" s="1">
         <v>0</v>
       </c>
@@ -4901,7 +4908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" s="1">
         <v>0</v>
       </c>
@@ -4948,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" s="1">
         <v>1</v>
       </c>
@@ -4995,7 +5002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" s="1">
         <v>0</v>
       </c>
@@ -5042,7 +5049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" s="1">
         <v>0</v>
       </c>
@@ -5089,7 +5096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" s="1">
         <v>0</v>
       </c>
@@ -5136,7 +5143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" s="1">
         <v>0</v>
       </c>
@@ -5183,7 +5190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" s="1">
         <v>1</v>
       </c>
@@ -5230,7 +5237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" s="1">
         <v>0</v>
       </c>
@@ -5277,7 +5284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" s="1">
         <v>0</v>
       </c>
@@ -5324,7 +5331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" s="1">
         <v>0</v>
       </c>
@@ -5371,7 +5378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" s="1">
         <v>0</v>
       </c>
@@ -5418,7 +5425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" s="1">
         <v>0</v>
       </c>
@@ -5465,7 +5472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" s="1">
         <v>0</v>
       </c>
@@ -5512,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" s="1">
         <v>0</v>
       </c>
@@ -5559,7 +5566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" s="1">
         <v>0</v>
       </c>
@@ -5606,7 +5613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" s="1">
         <v>0</v>
       </c>
@@ -5653,7 +5660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" s="1">
         <v>0</v>
       </c>
@@ -5700,7 +5707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" s="1">
         <v>0</v>
       </c>
@@ -5747,7 +5754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" s="1">
         <v>0</v>
       </c>
@@ -5794,7 +5801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" s="1">
         <v>0</v>
       </c>
@@ -5841,7 +5848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" s="1">
         <v>0</v>
       </c>
@@ -5888,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" s="1">
         <v>0</v>
       </c>
@@ -5935,7 +5942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" s="1">
         <v>0</v>
       </c>
@@ -5982,7 +5989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" s="1">
         <v>0</v>
       </c>
@@ -6029,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" s="1">
         <v>0</v>
       </c>
@@ -6076,7 +6083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" s="1">
         <v>0</v>
       </c>
@@ -6123,7 +6130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" s="1">
         <v>0</v>
       </c>
@@ -6170,7 +6177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" s="1">
         <v>0</v>
       </c>
@@ -6217,7 +6224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" s="1">
         <v>0</v>
       </c>
@@ -6264,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" s="1">
         <v>0</v>
       </c>
@@ -6311,7 +6318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" s="1">
         <v>0</v>
       </c>
@@ -6358,7 +6365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" s="1">
         <v>0</v>
       </c>
@@ -6405,7 +6412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" s="1">
         <v>0</v>
       </c>
@@ -6452,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" s="1">
         <v>0</v>
       </c>
@@ -6499,7 +6506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" s="1">
         <v>0</v>
       </c>
@@ -6546,7 +6553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" s="1">
         <v>0</v>
       </c>
@@ -6593,7 +6600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" s="1">
         <v>0</v>
       </c>
@@ -6640,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" s="1">
         <v>0</v>
       </c>
@@ -6687,7 +6694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" s="1">
         <v>0</v>
       </c>
@@ -6734,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" s="1">
         <v>0</v>
       </c>
@@ -6781,7 +6788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" s="1">
         <v>0</v>
       </c>
@@ -6828,7 +6835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" s="1">
         <v>0</v>
       </c>
@@ -6875,7 +6882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" s="1">
         <v>0</v>
       </c>
@@ -6922,7 +6929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" s="1">
         <v>0</v>
       </c>
@@ -6969,7 +6976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" s="1">
         <v>0</v>
       </c>
@@ -7016,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" s="1">
         <v>0</v>
       </c>
@@ -7063,7 +7070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>0</v>
       </c>
@@ -7110,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>0</v>
       </c>
@@ -7157,7 +7164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>0</v>
       </c>
@@ -7204,7 +7211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>0</v>
       </c>
@@ -7251,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>0</v>
       </c>
@@ -7298,7 +7305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>0</v>
       </c>
@@ -7345,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>0</v>
       </c>
@@ -7392,7 +7399,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>0</v>
       </c>
@@ -7439,7 +7446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>0</v>
       </c>
@@ -7486,7 +7493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>0</v>
       </c>
@@ -7533,7 +7540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>0</v>
       </c>
@@ -7580,7 +7587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>0</v>
       </c>
@@ -7627,7 +7634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>0</v>
       </c>
@@ -7674,7 +7681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>0</v>
       </c>
@@ -7721,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>0</v>
       </c>
@@ -7768,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>0</v>
       </c>
@@ -7815,7 +7822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" s="1">
         <v>0</v>
       </c>
@@ -7862,7 +7869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" s="1">
         <v>0</v>
       </c>
@@ -7909,7 +7916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" s="1">
         <v>0</v>
       </c>
@@ -7956,7 +7963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" s="1">
         <v>0</v>
       </c>
@@ -8003,7 +8010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" s="1">
         <v>0</v>
       </c>
@@ -8050,7 +8057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" s="1">
         <v>0</v>
       </c>
@@ -8097,7 +8104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" s="1">
         <v>0</v>
       </c>
@@ -8144,7 +8151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" s="1">
         <v>0</v>
       </c>
@@ -8191,7 +8198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" s="1">
         <v>0</v>
       </c>
@@ -8238,7 +8245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" s="1">
         <v>0</v>
       </c>
@@ -8285,7 +8292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" s="1">
         <v>0</v>
       </c>
@@ -8332,7 +8339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" s="1">
         <v>0</v>
       </c>
@@ -8379,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" s="1">
         <v>0</v>
       </c>
@@ -8426,7 +8433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" s="1">
         <v>0</v>
       </c>
@@ -8473,7 +8480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" s="1">
         <v>0</v>
       </c>
@@ -8520,7 +8527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" s="1">
         <v>0</v>
       </c>
@@ -8567,7 +8574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" s="1">
         <v>0</v>
       </c>
@@ -8614,7 +8621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" s="1">
         <v>0</v>
       </c>
@@ -8661,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" s="1">
         <v>0</v>
       </c>
@@ -8708,7 +8715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" s="1">
         <v>0</v>
       </c>
@@ -8755,7 +8762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" s="1">
         <v>0</v>
       </c>
@@ -8802,7 +8809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" s="1">
         <v>0</v>
       </c>
@@ -8849,7 +8856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" s="1">
         <v>0</v>
       </c>
@@ -8896,7 +8903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" s="1">
         <v>0</v>
       </c>
@@ -8943,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" s="1">
         <v>0</v>
       </c>
@@ -8990,7 +8997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" s="1">
         <v>1</v>
       </c>
@@ -9037,7 +9044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" s="1">
         <v>1</v>
       </c>
@@ -9084,7 +9091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" s="1">
         <v>1</v>
       </c>
@@ -9131,7 +9138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" s="1">
         <v>1</v>
       </c>
@@ -9178,7 +9185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" s="1">
         <v>1</v>
       </c>
@@ -9225,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" s="1">
         <v>1</v>
       </c>
@@ -9272,7 +9279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" s="1">
         <v>1</v>
       </c>
@@ -9319,7 +9326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" s="1">
         <v>1</v>
       </c>
@@ -9366,7 +9373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" s="1">
         <v>1</v>
       </c>
@@ -9413,7 +9420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" s="1">
         <v>1</v>
       </c>
@@ -9460,7 +9467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" s="1">
         <v>1</v>
       </c>
@@ -9507,7 +9514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" s="1">
         <v>1</v>
       </c>
@@ -9554,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" s="1">
         <v>1</v>
       </c>
@@ -9601,7 +9608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" s="1">
         <v>1</v>
       </c>
@@ -9648,7 +9655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" s="1">
         <v>1</v>
       </c>
@@ -9695,7 +9702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" s="1">
         <v>1</v>
       </c>
@@ -9742,7 +9749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" s="1">
         <v>1</v>
       </c>
@@ -9789,7 +9796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" s="1">
         <v>1</v>
       </c>
@@ -9836,7 +9843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" s="1">
         <v>1</v>
       </c>
@@ -9883,7 +9890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" s="1">
         <v>1</v>
       </c>
@@ -9930,7 +9937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" s="1">
         <v>1</v>
       </c>
@@ -9977,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" s="1">
         <v>0</v>
       </c>
@@ -10024,7 +10031,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" s="1">
         <v>0</v>
       </c>
@@ -10071,7 +10078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>0</v>
       </c>
@@ -10118,7 +10125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>0</v>
       </c>
@@ -10165,7 +10172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>0</v>
       </c>
@@ -10212,7 +10219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>0</v>
       </c>
@@ -10259,7 +10266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>0</v>
       </c>
@@ -10306,7 +10313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>0</v>
       </c>
@@ -10353,7 +10360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>0</v>
       </c>
@@ -10400,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>0</v>
       </c>
@@ -10447,7 +10454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>0</v>
       </c>
@@ -10494,7 +10501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>0</v>
       </c>
@@ -10541,7 +10548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>0</v>
       </c>
@@ -10588,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>0</v>
       </c>
@@ -10635,7 +10642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>0</v>
       </c>
@@ -10682,7 +10689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>0</v>
       </c>
@@ -10729,7 +10736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>0</v>
       </c>
@@ -10776,7 +10783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>0</v>
       </c>
@@ -10823,7 +10830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" s="1">
         <v>0</v>
       </c>
@@ -10870,7 +10877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" s="1">
         <v>1</v>
       </c>
@@ -10917,7 +10924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" s="1">
         <v>0</v>
       </c>
@@ -10964,7 +10971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" s="1">
         <v>0</v>
       </c>
@@ -11011,7 +11018,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" s="1">
         <v>0</v>
       </c>
@@ -11058,7 +11065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" s="1">
         <v>0</v>
       </c>
@@ -11105,7 +11112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" s="1">
         <v>0</v>
       </c>
@@ -11152,7 +11159,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" s="1">
         <v>0</v>
       </c>
@@ -11199,7 +11206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" s="1">
         <v>0</v>
       </c>
@@ -11246,7 +11253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" s="1">
         <v>0</v>
       </c>
@@ -11293,7 +11300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" s="1">
         <v>0</v>
       </c>
@@ -11340,7 +11347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" s="1">
         <v>0</v>
       </c>
@@ -11387,7 +11394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" s="1">
         <v>0</v>
       </c>
@@ -11434,7 +11441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" s="1">
         <v>0</v>
       </c>
@@ -11481,7 +11488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" s="1">
         <v>0</v>
       </c>
@@ -11528,7 +11535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" s="1">
         <v>1</v>
       </c>
@@ -11575,7 +11582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" s="1">
         <v>0</v>
       </c>
@@ -11622,7 +11629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" s="1">
         <v>0</v>
       </c>
@@ -11669,7 +11676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" s="1">
         <v>0</v>
       </c>
@@ -11716,7 +11723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" s="1">
         <v>0</v>
       </c>
@@ -11763,7 +11770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" s="1">
         <v>0</v>
       </c>
@@ -11810,7 +11817,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" s="1">
         <v>0</v>
       </c>
@@ -11857,7 +11864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" s="1">
         <v>0</v>
       </c>
@@ -11904,7 +11911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" s="1">
         <v>0</v>
       </c>
@@ -11951,7 +11958,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" s="1">
         <v>0</v>
       </c>
@@ -11998,7 +12005,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" s="1">
         <v>0</v>
       </c>
@@ -12045,7 +12052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" s="1">
         <v>0</v>
       </c>
@@ -12092,7 +12099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" s="1">
         <v>0</v>
       </c>
@@ -12139,7 +12146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" s="1">
         <v>0</v>
       </c>
@@ -12186,7 +12193,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" s="1">
         <v>1</v>
       </c>
@@ -12233,7 +12240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" s="1">
         <v>0</v>
       </c>
@@ -12280,7 +12287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" s="1">
         <v>1</v>
       </c>
@@ -12327,7 +12334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" s="1">
         <v>0</v>
       </c>
@@ -12374,7 +12381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" s="1">
         <v>0</v>
       </c>
@@ -12421,7 +12428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" s="1">
         <v>0</v>
       </c>
@@ -12468,7 +12475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" s="1">
         <v>0</v>
       </c>
@@ -12515,7 +12522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" s="1">
         <v>0</v>
       </c>
@@ -12562,7 +12569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" s="1">
         <v>0</v>
       </c>
@@ -12609,7 +12616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" s="1">
         <v>0</v>
       </c>
@@ -12656,7 +12663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" s="1">
         <v>0</v>
       </c>
@@ -12703,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" s="1">
         <v>0</v>
       </c>
@@ -12750,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" s="1">
         <v>0</v>
       </c>
@@ -12797,7 +12804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" s="1">
         <v>0</v>
       </c>
@@ -12844,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" s="1">
         <v>0</v>
       </c>
@@ -12891,7 +12898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" s="1">
         <v>0</v>
       </c>
@@ -12938,7 +12945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" s="1">
         <v>0</v>
       </c>
@@ -12985,7 +12992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" s="1">
         <v>1</v>
       </c>
@@ -13032,7 +13039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" s="1">
         <v>1</v>
       </c>
@@ -13079,7 +13086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" s="1">
         <v>1</v>
       </c>
@@ -13126,7 +13133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" s="1">
         <v>1</v>
       </c>
@@ -13173,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" s="1">
         <v>1</v>
       </c>
@@ -13220,7 +13227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" s="1">
         <v>1</v>
       </c>
@@ -13267,7 +13274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" s="1">
         <v>1</v>
       </c>
@@ -13314,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" s="1">
         <v>1</v>
       </c>
@@ -13361,7 +13368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" s="1">
         <v>1</v>
       </c>
@@ -13408,7 +13415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" s="1">
         <v>1</v>
       </c>
@@ -13455,7 +13462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" s="1">
         <v>1</v>
       </c>
@@ -13502,7 +13509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" s="1">
         <v>1</v>
       </c>
@@ -13549,7 +13556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" s="1">
         <v>1</v>
       </c>
@@ -13596,7 +13603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" s="1">
         <v>1</v>
       </c>
@@ -13643,7 +13650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" s="1">
         <v>1</v>
       </c>
@@ -13690,7 +13697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" s="1">
         <v>1</v>
       </c>
@@ -13737,7 +13744,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" s="1">
         <v>1</v>
       </c>
@@ -13784,7 +13791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" s="1">
         <v>1</v>
       </c>
@@ -13831,7 +13838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" s="1">
         <v>1</v>
       </c>
@@ -13878,7 +13885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" s="1">
         <v>1</v>
       </c>
@@ -13925,7 +13932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:15" ht="14.65" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="1">
         <v>1</v>
       </c>
@@ -13972,7 +13979,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" s="1">
         <v>1</v>
       </c>
@@ -14019,7 +14026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" s="1">
         <v>1</v>
       </c>
@@ -14066,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" s="1">
         <v>1</v>
       </c>
@@ -14113,7 +14120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" s="1">
         <v>1</v>
       </c>
@@ -14160,7 +14167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" s="1">
         <v>1</v>
       </c>
@@ -14207,7 +14214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" s="1">
         <v>1</v>
       </c>
@@ -14254,7 +14261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" s="1">
         <v>0</v>
       </c>
@@ -14301,7 +14308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" s="1">
         <v>0</v>
       </c>
@@ -14348,7 +14355,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" s="1">
         <v>0</v>
       </c>
@@ -14395,7 +14402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" s="1">
         <v>0</v>
       </c>
@@ -14442,7 +14449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" s="1">
         <v>0</v>
       </c>
@@ -14489,7 +14496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" s="1">
         <v>1</v>
       </c>
@@ -14536,7 +14543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" s="1">
         <v>1</v>
       </c>
@@ -14583,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" s="1">
         <v>0</v>
       </c>
@@ -14630,7 +14637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" s="1">
         <v>0</v>
       </c>
@@ -14677,7 +14684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" s="1">
         <v>0</v>
       </c>
@@ -14724,7 +14731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" s="1">
         <v>0</v>
       </c>
@@ -14771,7 +14778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" s="1">
         <v>1</v>
       </c>
@@ -14818,7 +14825,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" s="1">
         <v>1</v>
       </c>
@@ -14865,7 +14872,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" s="1">
         <v>1</v>
       </c>
@@ -14912,7 +14919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" s="1">
         <v>1</v>
       </c>
@@ -14959,7 +14966,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" s="1">
         <v>1</v>
       </c>
@@ -15006,7 +15013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" s="1">
         <v>0</v>
       </c>
@@ -15053,7 +15060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" s="1">
         <v>0</v>
       </c>
@@ -15100,7 +15107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" s="1">
         <v>0</v>
       </c>
@@ -15147,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" s="1">
         <v>0</v>
       </c>
@@ -15194,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" s="1">
         <v>0</v>
       </c>
@@ -15241,7 +15248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" s="1">
         <v>0</v>
       </c>
@@ -15288,7 +15295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" s="1">
         <v>0</v>
       </c>
@@ -15335,7 +15342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" s="1">
         <v>0</v>
       </c>
@@ -15382,7 +15389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" s="1">
         <v>0</v>
       </c>
@@ -15429,7 +15436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" s="1">
         <v>0</v>
       </c>
@@ -15476,7 +15483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" s="1">
         <v>0</v>
       </c>
@@ -15523,7 +15530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" s="1">
         <v>0</v>
       </c>
@@ -15570,7 +15577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" s="1">
         <v>0</v>
       </c>
@@ -15617,7 +15624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" s="1">
         <v>1</v>
       </c>
@@ -15664,7 +15671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" s="1">
         <v>1</v>
       </c>
@@ -15711,7 +15718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" s="1">
         <v>1</v>
       </c>
@@ -15758,7 +15765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" s="1">
         <v>1</v>
       </c>
@@ -15805,7 +15812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" s="1">
         <v>1</v>
       </c>
@@ -15852,7 +15859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" s="1">
         <v>1</v>
       </c>
@@ -15899,7 +15906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" s="1">
         <v>1</v>
       </c>
@@ -15946,7 +15953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" s="1">
         <v>1</v>
       </c>
@@ -15993,7 +16000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" s="1">
         <v>1</v>
       </c>
@@ -16040,7 +16047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" s="1">
         <v>1</v>
       </c>
@@ -16087,7 +16094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" s="1">
         <v>1</v>
       </c>
@@ -16134,7 +16141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" s="1">
         <v>1</v>
       </c>
@@ -16181,7 +16188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>1</v>
       </c>
@@ -16228,7 +16235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>1</v>
       </c>
@@ -16275,7 +16282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>1</v>
       </c>
@@ -16322,7 +16329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>1</v>
       </c>
@@ -16369,7 +16376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>1</v>
       </c>
@@ -16416,7 +16423,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>1</v>
       </c>
@@ -16463,7 +16470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" s="1">
         <v>1</v>
       </c>
@@ -16510,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" s="1">
         <v>1</v>
       </c>
@@ -16557,7 +16564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" s="1">
         <v>1</v>
       </c>
@@ -16604,7 +16611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" s="1">
         <v>1</v>
       </c>
@@ -16651,7 +16658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" s="1">
         <v>1</v>
       </c>
@@ -16698,7 +16705,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" s="1">
         <v>1</v>
       </c>
@@ -16745,7 +16752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" s="1">
         <v>0</v>
       </c>
@@ -16792,7 +16799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" s="1">
         <v>0</v>
       </c>
@@ -16839,7 +16846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" s="1">
         <v>0</v>
       </c>
@@ -16886,7 +16893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" s="1">
         <v>0</v>
       </c>
@@ -16933,7 +16940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" s="1">
         <v>0</v>
       </c>
@@ -16980,7 +16987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" s="1">
         <v>0</v>
       </c>
@@ -17027,7 +17034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" s="1">
         <v>0</v>
       </c>
@@ -17074,7 +17081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" s="1">
         <v>0</v>
       </c>
@@ -17121,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" s="1">
         <v>0</v>
       </c>
@@ -17168,7 +17175,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" s="1">
         <v>0</v>
       </c>
@@ -17215,7 +17222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" s="1">
         <v>0</v>
       </c>
@@ -17262,7 +17269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" s="1">
         <v>0</v>
       </c>
@@ -17309,7 +17316,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" s="1">
         <v>0</v>
       </c>
@@ -17356,7 +17363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" s="1">
         <v>0</v>
       </c>
@@ -17403,7 +17410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" s="1">
         <v>0</v>
       </c>
@@ -17450,7 +17457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" s="1">
         <v>1</v>
       </c>
@@ -17497,7 +17504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" s="1">
         <v>0</v>
       </c>
@@ -17544,7 +17551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" s="1">
         <v>0</v>
       </c>
@@ -17591,7 +17598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" s="1">
         <v>0</v>
       </c>
@@ -17638,7 +17645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" s="1">
         <v>0</v>
       </c>
@@ -17685,7 +17692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" s="1">
         <v>0</v>
       </c>
@@ -17732,7 +17739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" s="1">
         <v>0</v>
       </c>
@@ -17779,7 +17786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" s="1">
         <v>0</v>
       </c>
@@ -17826,7 +17833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" s="1">
         <v>0</v>
       </c>
@@ -17873,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" s="1">
         <v>0</v>
       </c>
@@ -17920,7 +17927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" s="1">
         <v>0</v>
       </c>
@@ -17967,7 +17974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" s="1">
         <v>0</v>
       </c>
@@ -18014,7 +18021,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" s="1">
         <v>0</v>
       </c>
@@ -18061,7 +18068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" s="1">
         <v>0</v>
       </c>
@@ -18108,7 +18115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" s="1">
         <v>1</v>
       </c>
@@ -18155,7 +18162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" s="1">
         <v>1</v>
       </c>
@@ -18202,7 +18209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" s="1">
         <v>1</v>
       </c>
@@ -18249,7 +18256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" s="1">
         <v>1</v>
       </c>
@@ -18296,7 +18303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" s="1">
         <v>0</v>
       </c>
@@ -18343,7 +18350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" s="1">
         <v>0</v>
       </c>
@@ -18390,7 +18397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" s="1">
         <v>0</v>
       </c>
@@ -18437,7 +18444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" s="1">
         <v>0</v>
       </c>
@@ -18484,7 +18491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" s="1">
         <v>0</v>
       </c>
@@ -18531,7 +18538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" s="1">
         <v>0</v>
       </c>
@@ -18578,7 +18585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" s="1">
         <v>0</v>
       </c>
@@ -18625,7 +18632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" s="1">
         <v>0</v>
       </c>
@@ -18672,7 +18679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" s="1">
         <v>0</v>
       </c>
@@ -18719,7 +18726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" s="1">
         <v>0</v>
       </c>
@@ -18766,7 +18773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" s="1">
         <v>0</v>
       </c>
@@ -18813,7 +18820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" s="1">
         <v>0</v>
       </c>
@@ -18860,7 +18867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" s="1">
         <v>0</v>
       </c>
@@ -18907,7 +18914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" s="1">
         <v>0</v>
       </c>
@@ -18954,7 +18961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" s="1">
         <v>0</v>
       </c>
@@ -19001,7 +19008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" s="1">
         <v>0</v>
       </c>
@@ -19048,7 +19055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" s="1">
         <v>0</v>
       </c>
@@ -19095,7 +19102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" s="1">
         <v>0</v>
       </c>
@@ -19142,7 +19149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" s="1">
         <v>0</v>
       </c>
@@ -19189,7 +19196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" s="1">
         <v>0</v>
       </c>
@@ -19236,7 +19243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" s="1">
         <v>0</v>
       </c>
@@ -19283,7 +19290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" s="1">
         <v>0</v>
       </c>
@@ -19330,7 +19337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" s="1">
         <v>0</v>
       </c>
@@ -19377,7 +19384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" s="1">
         <v>0</v>
       </c>
@@ -19424,7 +19431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" s="1">
         <v>0</v>
       </c>
@@ -19471,7 +19478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" s="1">
         <v>0</v>
       </c>
@@ -19518,7 +19525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" s="1">
         <v>0</v>
       </c>
@@ -19565,7 +19572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" s="1">
         <v>0</v>
       </c>
@@ -19612,7 +19619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396">
         <v>0</v>
       </c>
@@ -19659,7 +19666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" s="1">
         <v>1</v>
       </c>
@@ -19706,7 +19713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" s="1">
         <v>1</v>
       </c>
@@ -19753,7 +19760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" s="1">
         <v>1</v>
       </c>
@@ -19800,7 +19807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" s="1">
         <v>1</v>
       </c>
@@ -19847,7 +19854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" s="1">
         <v>1</v>
       </c>
@@ -19894,7 +19901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" s="1">
         <v>1</v>
       </c>
@@ -19941,7 +19948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" s="1">
         <v>1</v>
       </c>
@@ -19988,7 +19995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" s="1">
         <v>1</v>
       </c>
@@ -20035,7 +20042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" s="1">
         <v>1</v>
       </c>
@@ -20082,7 +20089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406">
         <v>1</v>
       </c>
